--- a/resultados/descripcion.xlsx
+++ b/resultados/descripcion.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="460" windowWidth="27320" windowHeight="13640" tabRatio="500" activeTab="5"/>
+    <workbookView xWindow="1400" yWindow="620" windowWidth="25460" windowHeight="13660" tabRatio="500" activeTab="4"/>
   </bookViews>
   <sheets>
     <sheet name="Tabla 1. Fecha, título y autor" sheetId="2" r:id="rId1"/>
@@ -50,7 +50,7 @@
     </textPr>
   </connection>
   <connection id="2" name="B1" type="6" refreshedVersion="0" background="1" saveData="1">
-    <textPr fileType="mac" codePage="10000" sourceFile="/Users/Antonio/Documents/articulos/fabula_mitologica/results/mfw/B.csv" decimal="," thousands="." comma="1">
+    <textPr fileType="mac" sourceFile="/Users/Antonio/Documents/articulos/fabula_mitologica/results/mfw/B.csv" decimal="," thousands="." comma="1">
       <textFields count="3">
         <textField type="skip"/>
         <textField type="text"/>
@@ -80,7 +80,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="704" uniqueCount="359">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="703" uniqueCount="357">
   <si>
     <t>Versos</t>
   </si>
@@ -388,30 +388,9 @@
     <t>Adusto</t>
   </si>
   <si>
-    <t>Vïola</t>
-  </si>
-  <si>
     <t>Vïolencia</t>
   </si>
   <si>
-    <t>Inquïeta</t>
-  </si>
-  <si>
-    <t>Cítaras</t>
-  </si>
-  <si>
-    <t>Gémina</t>
-  </si>
-  <si>
-    <t>Tálamo</t>
-  </si>
-  <si>
-    <t>Melancólico</t>
-  </si>
-  <si>
-    <t>Aljófares</t>
-  </si>
-  <si>
     <t>Dïáfano</t>
   </si>
   <si>
@@ -1021,27 +1000,6 @@
     <t>Palabra clave</t>
   </si>
   <si>
-    <t>Ebúrnea</t>
-  </si>
-  <si>
-    <t>Erigió</t>
-  </si>
-  <si>
-    <t>Liba</t>
-  </si>
-  <si>
-    <t>Ministra</t>
-  </si>
-  <si>
-    <t>Ostenta</t>
-  </si>
-  <si>
-    <t>Trémula</t>
-  </si>
-  <si>
-    <t>Argenta</t>
-  </si>
-  <si>
     <t>ir</t>
   </si>
   <si>
@@ -1157,6 +1115,42 @@
   </si>
   <si>
     <t>tributo</t>
+  </si>
+  <si>
+    <t>Argentar</t>
+  </si>
+  <si>
+    <t>Cítara</t>
+  </si>
+  <si>
+    <t>Ebúrneo</t>
+  </si>
+  <si>
+    <t>Erigir</t>
+  </si>
+  <si>
+    <t>Inquïeto</t>
+  </si>
+  <si>
+    <t>Libar</t>
+  </si>
+  <si>
+    <t>Ministrar</t>
+  </si>
+  <si>
+    <t>Ostentar</t>
+  </si>
+  <si>
+    <t>Trémulo</t>
+  </si>
+  <si>
+    <t>Vïolar</t>
+  </si>
+  <si>
+    <t>Desviación típica</t>
+  </si>
+  <si>
+    <t>Ilustrar</t>
   </si>
 </sst>
 </file>
@@ -1167,7 +1161,7 @@
     <numFmt numFmtId="43" formatCode="_-* #,##0.00\ _€_-;\-* #,##0.00\ _€_-;_-* &quot;-&quot;??\ _€_-;_-@_-"/>
     <numFmt numFmtId="164" formatCode="0.000"/>
   </numFmts>
-  <fonts count="4" x14ac:knownFonts="1">
+  <fonts count="5" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -1198,6 +1192,14 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <b/>
+      <sz val="12"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
   <fills count="4">
     <fill>
@@ -1219,7 +1221,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="1">
+  <borders count="2">
     <border>
       <left/>
       <right/>
@@ -1227,8 +1229,17 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color auto="1"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
   </borders>
-  <cellStyleXfs count="74">
+  <cellStyleXfs count="76">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
@@ -1303,8 +1314,10 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="22">
+  <cellXfs count="32">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="right"/>
@@ -1357,8 +1370,30 @@
     <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
   </cellXfs>
-  <cellStyles count="74">
+  <cellStyles count="76">
     <cellStyle name="Hipervínculo" xfId="1" builtinId="8" hidden="1"/>
     <cellStyle name="Hipervínculo" xfId="3" builtinId="8" hidden="1"/>
     <cellStyle name="Hipervínculo" xfId="5" builtinId="8" hidden="1"/>
@@ -1395,6 +1430,7 @@
     <cellStyle name="Hipervínculo" xfId="68" builtinId="8" hidden="1"/>
     <cellStyle name="Hipervínculo" xfId="70" builtinId="8" hidden="1"/>
     <cellStyle name="Hipervínculo" xfId="72" builtinId="8" hidden="1"/>
+    <cellStyle name="Hipervínculo" xfId="74" builtinId="8" hidden="1"/>
     <cellStyle name="Hipervínculo visitado" xfId="2" builtinId="9" hidden="1"/>
     <cellStyle name="Hipervínculo visitado" xfId="4" builtinId="9" hidden="1"/>
     <cellStyle name="Hipervínculo visitado" xfId="6" builtinId="9" hidden="1"/>
@@ -1431,6 +1467,7 @@
     <cellStyle name="Hipervínculo visitado" xfId="69" builtinId="9" hidden="1"/>
     <cellStyle name="Hipervínculo visitado" xfId="71" builtinId="9" hidden="1"/>
     <cellStyle name="Hipervínculo visitado" xfId="73" builtinId="9" hidden="1"/>
+    <cellStyle name="Hipervínculo visitado" xfId="75" builtinId="9" hidden="1"/>
     <cellStyle name="Millares" xfId="29" builtinId="3"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
@@ -1447,19 +1484,19 @@
 </file>
 
 <file path=xl/queryTables/queryTable1.xml><?xml version="1.0" encoding="utf-8"?>
+<queryTable xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="A_1" connectionId="1" autoFormatId="16" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="1" applyPatternFormats="1" applyAlignmentFormats="0" applyWidthHeightFormats="0"/>
+</file>
+
+<file path=xl/queryTables/queryTable2.xml><?xml version="1.0" encoding="utf-8"?>
 <queryTable xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="B_1" connectionId="2" autoFormatId="16" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="1" applyPatternFormats="1" applyAlignmentFormats="0" applyWidthHeightFormats="0"/>
 </file>
 
-<file path=xl/queryTables/queryTable2.xml><?xml version="1.0" encoding="utf-8"?>
-<queryTable xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="A_1" connectionId="1" autoFormatId="16" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="1" applyPatternFormats="1" applyAlignmentFormats="0" applyWidthHeightFormats="0"/>
-</file>
-
 <file path=xl/queryTables/queryTable3.xml><?xml version="1.0" encoding="utf-8"?>
-<queryTable xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="D" connectionId="4" autoFormatId="16" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="1" applyPatternFormats="1" applyAlignmentFormats="0" applyWidthHeightFormats="0"/>
+<queryTable xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="C" connectionId="3" autoFormatId="16" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="1" applyPatternFormats="1" applyAlignmentFormats="0" applyWidthHeightFormats="0"/>
 </file>
 
 <file path=xl/queryTables/queryTable4.xml><?xml version="1.0" encoding="utf-8"?>
-<queryTable xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="C" connectionId="3" autoFormatId="16" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="1" applyPatternFormats="1" applyAlignmentFormats="0" applyWidthHeightFormats="0"/>
+<queryTable xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="D" connectionId="4" autoFormatId="16" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="1" applyPatternFormats="1" applyAlignmentFormats="0" applyWidthHeightFormats="0"/>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -1753,7 +1790,7 @@
         <v>20</v>
       </c>
       <c r="C1" s="18" t="s">
-        <v>150</v>
+        <v>143</v>
       </c>
       <c r="D1" s="18" t="s">
         <v>18</v>
@@ -1783,7 +1820,7 @@
         <v>61</v>
       </c>
       <c r="M1" s="18" t="s">
-        <v>111</v>
+        <v>104</v>
       </c>
     </row>
     <row r="2" spans="1:13" s="4" customFormat="1" x14ac:dyDescent="0.2">
@@ -1818,13 +1855,13 @@
         <v>25</v>
       </c>
       <c r="K2" s="4" t="s">
-        <v>113</v>
+        <v>106</v>
       </c>
       <c r="L2" s="4" t="s">
         <v>23</v>
       </c>
       <c r="M2" s="4" t="s">
-        <v>112</v>
+        <v>105</v>
       </c>
     </row>
     <row r="3" spans="1:13" s="4" customFormat="1" x14ac:dyDescent="0.2">
@@ -1859,13 +1896,13 @@
         <v>25</v>
       </c>
       <c r="K3" s="4" t="s">
-        <v>117</v>
+        <v>110</v>
       </c>
       <c r="L3" s="4" t="s">
         <v>23</v>
       </c>
       <c r="M3" s="4" t="s">
-        <v>119</v>
+        <v>112</v>
       </c>
     </row>
     <row r="4" spans="1:13" s="4" customFormat="1" x14ac:dyDescent="0.2">
@@ -1900,13 +1937,13 @@
         <v>25</v>
       </c>
       <c r="K4" s="4" t="s">
-        <v>115</v>
+        <v>108</v>
       </c>
       <c r="L4" s="4" t="s">
         <v>23</v>
       </c>
       <c r="M4" s="4" t="s">
-        <v>114</v>
+        <v>107</v>
       </c>
     </row>
     <row r="5" spans="1:13" s="4" customFormat="1" x14ac:dyDescent="0.2">
@@ -1941,13 +1978,13 @@
         <v>25</v>
       </c>
       <c r="K5" s="4" t="s">
-        <v>118</v>
+        <v>111</v>
       </c>
       <c r="L5" s="4" t="s">
         <v>23</v>
       </c>
       <c r="M5" s="4" t="s">
-        <v>116</v>
+        <v>109</v>
       </c>
     </row>
     <row r="6" spans="1:13" s="4" customFormat="1" x14ac:dyDescent="0.2">
@@ -1982,13 +2019,13 @@
         <v>25</v>
       </c>
       <c r="K6" s="4" t="s">
-        <v>120</v>
+        <v>113</v>
       </c>
       <c r="L6" s="4" t="s">
         <v>23</v>
       </c>
       <c r="M6" s="4" t="s">
-        <v>121</v>
+        <v>114</v>
       </c>
     </row>
     <row r="7" spans="1:13" s="4" customFormat="1" x14ac:dyDescent="0.2">
@@ -2023,13 +2060,13 @@
         <v>25</v>
       </c>
       <c r="K7" s="4" t="s">
-        <v>118</v>
+        <v>111</v>
       </c>
       <c r="L7" s="4" t="s">
         <v>23</v>
       </c>
       <c r="M7" s="4" t="s">
-        <v>123</v>
+        <v>116</v>
       </c>
     </row>
     <row r="8" spans="1:13" s="4" customFormat="1" ht="17" customHeight="1" x14ac:dyDescent="0.2">
@@ -2064,13 +2101,13 @@
         <v>25</v>
       </c>
       <c r="K8" s="4" t="s">
-        <v>148</v>
+        <v>141</v>
       </c>
       <c r="L8" s="4" t="s">
-        <v>122</v>
+        <v>115</v>
       </c>
       <c r="M8" s="4" t="s">
-        <v>124</v>
+        <v>117</v>
       </c>
     </row>
     <row r="9" spans="1:13" s="4" customFormat="1" x14ac:dyDescent="0.2">
@@ -2105,13 +2142,13 @@
         <v>25</v>
       </c>
       <c r="K9" s="4" t="s">
-        <v>118</v>
+        <v>111</v>
       </c>
       <c r="L9" s="4" t="s">
         <v>23</v>
       </c>
       <c r="M9" s="4" t="s">
-        <v>135</v>
+        <v>128</v>
       </c>
     </row>
     <row r="10" spans="1:13" s="4" customFormat="1" x14ac:dyDescent="0.2">
@@ -2146,13 +2183,13 @@
         <v>25</v>
       </c>
       <c r="K10" s="4" t="s">
-        <v>118</v>
+        <v>111</v>
       </c>
       <c r="L10" s="4" t="s">
         <v>23</v>
       </c>
       <c r="M10" s="4" t="s">
-        <v>149</v>
+        <v>142</v>
       </c>
     </row>
     <row r="11" spans="1:13" s="4" customFormat="1" x14ac:dyDescent="0.2">
@@ -2187,13 +2224,13 @@
         <v>25</v>
       </c>
       <c r="K11" s="4" t="s">
-        <v>118</v>
+        <v>111</v>
       </c>
       <c r="L11" s="4" t="s">
         <v>23</v>
       </c>
       <c r="M11" s="4" t="s">
-        <v>141</v>
+        <v>134</v>
       </c>
     </row>
     <row r="12" spans="1:13" s="4" customFormat="1" x14ac:dyDescent="0.2">
@@ -2228,13 +2265,13 @@
         <v>25</v>
       </c>
       <c r="K12" s="4" t="s">
-        <v>118</v>
+        <v>111</v>
       </c>
       <c r="L12" s="4" t="s">
         <v>23</v>
       </c>
       <c r="M12" s="4" t="s">
-        <v>125</v>
+        <v>118</v>
       </c>
     </row>
     <row r="13" spans="1:13" s="4" customFormat="1" ht="17" customHeight="1" x14ac:dyDescent="0.2">
@@ -2260,7 +2297,7 @@
         <v>1365</v>
       </c>
       <c r="H13" s="4" t="s">
-        <v>128</v>
+        <v>121</v>
       </c>
       <c r="I13" s="4" t="s">
         <v>25</v>
@@ -2269,13 +2306,13 @@
         <v>25</v>
       </c>
       <c r="K13" s="4" t="s">
-        <v>118</v>
+        <v>111</v>
       </c>
       <c r="L13" s="4" t="s">
-        <v>126</v>
+        <v>119</v>
       </c>
       <c r="M13" s="4" t="s">
-        <v>127</v>
+        <v>120</v>
       </c>
     </row>
     <row r="14" spans="1:13" s="4" customFormat="1" x14ac:dyDescent="0.2">
@@ -2310,13 +2347,13 @@
         <v>25</v>
       </c>
       <c r="K14" s="4" t="s">
-        <v>118</v>
+        <v>111</v>
       </c>
       <c r="L14" s="4" t="s">
         <v>23</v>
       </c>
       <c r="M14" s="4" t="s">
-        <v>129</v>
+        <v>122</v>
       </c>
     </row>
     <row r="15" spans="1:13" s="4" customFormat="1" x14ac:dyDescent="0.2">
@@ -2351,13 +2388,13 @@
         <v>25</v>
       </c>
       <c r="K15" s="4" t="s">
-        <v>118</v>
+        <v>111</v>
       </c>
       <c r="L15" s="4" t="s">
         <v>25</v>
       </c>
       <c r="M15" s="4" t="s">
-        <v>133</v>
+        <v>126</v>
       </c>
     </row>
     <row r="16" spans="1:13" s="4" customFormat="1" x14ac:dyDescent="0.2">
@@ -2392,13 +2429,13 @@
         <v>25</v>
       </c>
       <c r="K16" s="4" t="s">
-        <v>131</v>
+        <v>124</v>
       </c>
       <c r="L16" s="4" t="s">
         <v>23</v>
       </c>
       <c r="M16" s="4" t="s">
-        <v>132</v>
+        <v>125</v>
       </c>
     </row>
     <row r="17" spans="1:13" s="4" customFormat="1" x14ac:dyDescent="0.2">
@@ -2433,13 +2470,13 @@
         <v>25</v>
       </c>
       <c r="K17" s="4" t="s">
-        <v>120</v>
+        <v>113</v>
       </c>
       <c r="L17" s="4" t="s">
         <v>23</v>
       </c>
       <c r="M17" s="4" t="s">
-        <v>130</v>
+        <v>123</v>
       </c>
     </row>
     <row r="18" spans="1:13" s="4" customFormat="1" x14ac:dyDescent="0.2">
@@ -2474,13 +2511,13 @@
         <v>23</v>
       </c>
       <c r="K18" s="4" t="s">
-        <v>134</v>
+        <v>127</v>
       </c>
       <c r="L18" s="4" t="s">
         <v>25</v>
       </c>
       <c r="M18" s="4" t="s">
-        <v>156</v>
+        <v>149</v>
       </c>
     </row>
     <row r="19" spans="1:13" s="4" customFormat="1" x14ac:dyDescent="0.2">
@@ -2515,13 +2552,13 @@
         <v>25</v>
       </c>
       <c r="K19" s="4" t="s">
-        <v>143</v>
+        <v>136</v>
       </c>
       <c r="L19" s="4" t="s">
         <v>23</v>
       </c>
       <c r="M19" s="4" t="s">
-        <v>144</v>
+        <v>137</v>
       </c>
     </row>
     <row r="20" spans="1:13" s="4" customFormat="1" x14ac:dyDescent="0.2">
@@ -2556,13 +2593,13 @@
         <v>25</v>
       </c>
       <c r="K20" s="4" t="s">
-        <v>147</v>
+        <v>140</v>
       </c>
       <c r="L20" s="4" t="s">
         <v>23</v>
       </c>
       <c r="M20" s="4" t="s">
-        <v>137</v>
+        <v>130</v>
       </c>
     </row>
     <row r="21" spans="1:13" s="4" customFormat="1" x14ac:dyDescent="0.2">
@@ -2597,13 +2634,13 @@
         <v>25</v>
       </c>
       <c r="K21" s="4" t="s">
-        <v>138</v>
+        <v>131</v>
       </c>
       <c r="L21" s="4" t="s">
         <v>23</v>
       </c>
       <c r="M21" s="4" t="s">
-        <v>139</v>
+        <v>132</v>
       </c>
     </row>
     <row r="22" spans="1:13" s="4" customFormat="1" x14ac:dyDescent="0.2">
@@ -2614,7 +2651,7 @@
         <v>1629</v>
       </c>
       <c r="C22" s="4" t="s">
-        <v>154</v>
+        <v>147</v>
       </c>
       <c r="D22" s="4" t="s">
         <v>48</v>
@@ -2638,13 +2675,13 @@
         <v>25</v>
       </c>
       <c r="K22" s="4" t="s">
-        <v>118</v>
+        <v>111</v>
       </c>
       <c r="L22" s="4" t="s">
         <v>23</v>
       </c>
       <c r="M22" s="4" t="s">
-        <v>136</v>
+        <v>129</v>
       </c>
     </row>
     <row r="23" spans="1:13" s="4" customFormat="1" x14ac:dyDescent="0.2">
@@ -2655,7 +2692,7 @@
         <v>1629</v>
       </c>
       <c r="C23" s="4" t="s">
-        <v>140</v>
+        <v>133</v>
       </c>
       <c r="D23" s="4" t="s">
         <v>49</v>
@@ -2679,13 +2716,13 @@
         <v>25</v>
       </c>
       <c r="K23" s="4" t="s">
-        <v>118</v>
+        <v>111</v>
       </c>
       <c r="L23" s="4" t="s">
         <v>23</v>
       </c>
       <c r="M23" s="4" t="s">
-        <v>142</v>
+        <v>135</v>
       </c>
     </row>
     <row r="24" spans="1:13" s="4" customFormat="1" x14ac:dyDescent="0.2">
@@ -2696,7 +2733,7 @@
         <v>1634</v>
       </c>
       <c r="C24" s="4" t="s">
-        <v>154</v>
+        <v>147</v>
       </c>
       <c r="D24" s="4" t="s">
         <v>47</v>
@@ -2720,13 +2757,13 @@
         <v>25</v>
       </c>
       <c r="K24" s="4" t="s">
-        <v>138</v>
+        <v>131</v>
       </c>
       <c r="L24" s="4" t="s">
         <v>23</v>
       </c>
       <c r="M24" s="4" t="s">
-        <v>145</v>
+        <v>138</v>
       </c>
     </row>
     <row r="25" spans="1:13" s="4" customFormat="1" x14ac:dyDescent="0.2">
@@ -2761,13 +2798,13 @@
         <v>25</v>
       </c>
       <c r="K25" s="4" t="s">
-        <v>118</v>
+        <v>111</v>
       </c>
       <c r="L25" s="4" t="s">
         <v>23</v>
       </c>
       <c r="M25" s="4" t="s">
-        <v>146</v>
+        <v>139</v>
       </c>
     </row>
     <row r="26" spans="1:13" x14ac:dyDescent="0.2">
@@ -2802,7 +2839,7 @@
   <sheetData>
     <row r="1" spans="1:4" s="18" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A1" s="18" t="s">
-        <v>150</v>
+        <v>143</v>
       </c>
       <c r="B1" s="18" t="s">
         <v>60</v>
@@ -2819,7 +2856,7 @@
         <v>5</v>
       </c>
       <c r="B2" t="s">
-        <v>155</v>
+        <v>148</v>
       </c>
       <c r="C2" s="5">
         <v>240</v>
@@ -2833,7 +2870,7 @@
         <v>4</v>
       </c>
       <c r="B3" t="s">
-        <v>118</v>
+        <v>111</v>
       </c>
       <c r="C3" s="5">
         <v>248</v>
@@ -2847,7 +2884,7 @@
         <v>30</v>
       </c>
       <c r="B4" t="s">
-        <v>117</v>
+        <v>110</v>
       </c>
       <c r="C4" s="5">
         <v>256</v>
@@ -2861,7 +2898,7 @@
         <v>13</v>
       </c>
       <c r="B5" t="s">
-        <v>118</v>
+        <v>111</v>
       </c>
       <c r="C5" s="5">
         <v>352</v>
@@ -2875,7 +2912,7 @@
         <v>6</v>
       </c>
       <c r="B6" t="s">
-        <v>118</v>
+        <v>111</v>
       </c>
       <c r="C6" s="5">
         <v>504</v>
@@ -2889,7 +2926,7 @@
         <v>7</v>
       </c>
       <c r="B7" t="s">
-        <v>118</v>
+        <v>111</v>
       </c>
       <c r="C7" s="5">
         <v>508</v>
@@ -2900,10 +2937,10 @@
     </row>
     <row r="8" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A8" t="s">
-        <v>154</v>
+        <v>147</v>
       </c>
       <c r="B8" t="s">
-        <v>138</v>
+        <v>131</v>
       </c>
       <c r="C8" s="5">
         <v>539</v>
@@ -2917,7 +2954,7 @@
         <v>17</v>
       </c>
       <c r="B9" t="s">
-        <v>118</v>
+        <v>111</v>
       </c>
       <c r="C9" s="5">
         <v>570</v>
@@ -2931,7 +2968,7 @@
         <v>3</v>
       </c>
       <c r="B10" t="s">
-        <v>115</v>
+        <v>108</v>
       </c>
       <c r="C10" s="5">
         <v>590</v>
@@ -2945,7 +2982,7 @@
         <v>35</v>
       </c>
       <c r="B11" t="s">
-        <v>118</v>
+        <v>111</v>
       </c>
       <c r="C11" s="5">
         <v>784</v>
@@ -2959,7 +2996,7 @@
         <v>15</v>
       </c>
       <c r="B12" t="s">
-        <v>138</v>
+        <v>131</v>
       </c>
       <c r="C12" s="5">
         <v>788</v>
@@ -2973,7 +3010,7 @@
         <v>33</v>
       </c>
       <c r="B13" t="s">
-        <v>118</v>
+        <v>111</v>
       </c>
       <c r="C13" s="5">
         <v>824</v>
@@ -2987,7 +3024,7 @@
         <v>28</v>
       </c>
       <c r="B14" t="s">
-        <v>143</v>
+        <v>136</v>
       </c>
       <c r="C14" s="5">
         <v>832</v>
@@ -3001,7 +3038,7 @@
         <v>11</v>
       </c>
       <c r="B15" t="s">
-        <v>155</v>
+        <v>148</v>
       </c>
       <c r="C15" s="5">
         <v>872</v>
@@ -3012,10 +3049,10 @@
     </row>
     <row r="16" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A16" t="s">
-        <v>154</v>
+        <v>147</v>
       </c>
       <c r="B16" t="s">
-        <v>118</v>
+        <v>111</v>
       </c>
       <c r="C16" s="5">
         <v>944</v>
@@ -3029,7 +3066,7 @@
         <v>2</v>
       </c>
       <c r="B17" t="s">
-        <v>118</v>
+        <v>111</v>
       </c>
       <c r="C17" s="5">
         <v>1010</v>
@@ -3043,7 +3080,7 @@
         <v>9</v>
       </c>
       <c r="B18" t="s">
-        <v>118</v>
+        <v>111</v>
       </c>
       <c r="C18" s="5">
         <v>1360</v>
@@ -3057,13 +3094,13 @@
         <v>10</v>
       </c>
       <c r="B19" t="s">
-        <v>118</v>
+        <v>111</v>
       </c>
       <c r="C19" s="5">
         <v>1365</v>
       </c>
       <c r="D19" t="s">
-        <v>151</v>
+        <v>144</v>
       </c>
     </row>
     <row r="20" spans="1:4" x14ac:dyDescent="0.2">
@@ -3071,7 +3108,7 @@
         <v>27</v>
       </c>
       <c r="B20" t="s">
-        <v>118</v>
+        <v>111</v>
       </c>
       <c r="C20" s="5">
         <v>1488</v>
@@ -3085,7 +3122,7 @@
         <v>16</v>
       </c>
       <c r="B21" t="s">
-        <v>118</v>
+        <v>111</v>
       </c>
       <c r="C21" s="5">
         <v>1864</v>
@@ -3099,7 +3136,7 @@
         <v>12</v>
       </c>
       <c r="B22" t="s">
-        <v>134</v>
+        <v>127</v>
       </c>
       <c r="C22" s="5">
         <v>1872</v>
@@ -3110,10 +3147,10 @@
     </row>
     <row r="23" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A23" t="s">
-        <v>140</v>
+        <v>133</v>
       </c>
       <c r="B23" t="s">
-        <v>118</v>
+        <v>111</v>
       </c>
       <c r="C23" s="5">
         <v>2056</v>
@@ -3127,7 +3164,7 @@
         <v>32</v>
       </c>
       <c r="B24" t="s">
-        <v>118</v>
+        <v>111</v>
       </c>
       <c r="C24" s="5">
         <v>2260</v>
@@ -3141,7 +3178,7 @@
         <v>8</v>
       </c>
       <c r="B25" t="s">
-        <v>131</v>
+        <v>124</v>
       </c>
       <c r="C25" s="5">
         <v>3312</v>
@@ -3540,7 +3577,7 @@
         <v>42.301000000000002</v>
       </c>
       <c r="I22" t="s">
-        <v>153</v>
+        <v>146</v>
       </c>
       <c r="J22">
         <f>AVERAGE(C3:C26)</f>
@@ -3572,7 +3609,7 @@
         <v>43.203000000000003</v>
       </c>
       <c r="I23" t="s">
-        <v>152</v>
+        <v>145</v>
       </c>
       <c r="J23">
         <f>SUM(C3:C26)</f>
@@ -3676,19 +3713,19 @@
   <sheetData>
     <row r="1" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A1" s="20" t="s">
-        <v>157</v>
+        <v>150</v>
       </c>
       <c r="B1" s="20"/>
       <c r="C1" s="21" t="s">
-        <v>158</v>
+        <v>151</v>
       </c>
       <c r="D1" s="21"/>
       <c r="E1" s="21" t="s">
-        <v>159</v>
+        <v>152</v>
       </c>
       <c r="F1" s="21"/>
       <c r="G1" s="21" t="s">
-        <v>160</v>
+        <v>153</v>
       </c>
       <c r="H1" s="21"/>
     </row>
@@ -3704,652 +3741,652 @@
     </row>
     <row r="3" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A3" s="8" t="s">
-        <v>161</v>
+        <v>154</v>
       </c>
       <c r="B3" s="9" t="s">
-        <v>190</v>
+        <v>183</v>
       </c>
       <c r="C3" s="15" t="s">
-        <v>162</v>
+        <v>155</v>
       </c>
       <c r="D3" s="15" t="s">
-        <v>328</v>
+        <v>314</v>
       </c>
       <c r="E3" s="11" t="s">
-        <v>163</v>
+        <v>156</v>
       </c>
       <c r="F3" s="8" t="s">
-        <v>216</v>
+        <v>209</v>
       </c>
       <c r="G3" s="8" t="s">
-        <v>163</v>
+        <v>156</v>
       </c>
       <c r="H3" s="8" t="s">
-        <v>244</v>
+        <v>237</v>
       </c>
     </row>
     <row r="4" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A4" s="8" t="s">
-        <v>162</v>
+        <v>155</v>
       </c>
       <c r="B4" s="10" t="s">
-        <v>196</v>
+        <v>189</v>
       </c>
       <c r="C4" s="15" t="s">
-        <v>163</v>
+        <v>156</v>
       </c>
       <c r="D4" s="15" t="s">
-        <v>329</v>
+        <v>315</v>
       </c>
       <c r="E4" s="11" t="s">
-        <v>164</v>
+        <v>157</v>
       </c>
       <c r="F4" s="8" t="s">
-        <v>197</v>
+        <v>190</v>
       </c>
       <c r="G4" s="8" t="s">
-        <v>164</v>
+        <v>157</v>
       </c>
       <c r="H4" s="8" t="s">
-        <v>245</v>
+        <v>238</v>
       </c>
     </row>
     <row r="5" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A5" s="8" t="s">
-        <v>163</v>
+        <v>156</v>
       </c>
       <c r="B5" s="10" t="s">
-        <v>197</v>
+        <v>190</v>
       </c>
       <c r="C5" s="15" t="s">
-        <v>165</v>
+        <v>158</v>
       </c>
       <c r="D5" s="15" t="s">
-        <v>330</v>
+        <v>316</v>
       </c>
       <c r="E5" s="11" t="s">
-        <v>165</v>
+        <v>158</v>
       </c>
       <c r="F5" s="8" t="s">
-        <v>225</v>
+        <v>218</v>
       </c>
       <c r="G5" s="8" t="s">
-        <v>167</v>
+        <v>160</v>
       </c>
       <c r="H5" s="8" t="s">
-        <v>246</v>
+        <v>239</v>
       </c>
     </row>
     <row r="6" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A6" s="8" t="s">
-        <v>164</v>
+        <v>157</v>
       </c>
       <c r="B6" s="10" t="s">
-        <v>198</v>
+        <v>191</v>
       </c>
       <c r="C6" s="15" t="s">
-        <v>161</v>
+        <v>154</v>
       </c>
       <c r="D6" s="15" t="s">
-        <v>331</v>
+        <v>317</v>
       </c>
       <c r="E6" s="11" t="s">
-        <v>162</v>
+        <v>155</v>
       </c>
       <c r="F6" s="8" t="s">
-        <v>229</v>
+        <v>222</v>
       </c>
       <c r="G6" s="8" t="s">
-        <v>165</v>
+        <v>158</v>
       </c>
       <c r="H6" s="8" t="s">
-        <v>247</v>
+        <v>240</v>
       </c>
     </row>
     <row r="7" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A7" s="8" t="s">
-        <v>165</v>
+        <v>158</v>
       </c>
       <c r="B7" s="10" t="s">
-        <v>199</v>
+        <v>192</v>
       </c>
       <c r="C7" s="15" t="s">
-        <v>164</v>
+        <v>157</v>
       </c>
       <c r="D7" s="15" t="s">
-        <v>246</v>
+        <v>239</v>
       </c>
       <c r="E7" s="11" t="s">
-        <v>161</v>
+        <v>154</v>
       </c>
       <c r="F7" s="8" t="s">
-        <v>230</v>
+        <v>223</v>
       </c>
       <c r="G7" s="8" t="s">
-        <v>162</v>
+        <v>155</v>
       </c>
       <c r="H7" s="8" t="s">
-        <v>248</v>
+        <v>241</v>
       </c>
     </row>
     <row r="8" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A8" s="8" t="s">
-        <v>166</v>
+        <v>159</v>
       </c>
       <c r="B8" s="10" t="s">
-        <v>200</v>
+        <v>193</v>
       </c>
       <c r="C8" s="15" t="s">
-        <v>167</v>
+        <v>160</v>
       </c>
       <c r="D8" s="15" t="s">
-        <v>332</v>
+        <v>318</v>
       </c>
       <c r="E8" s="11" t="s">
-        <v>167</v>
+        <v>160</v>
       </c>
       <c r="F8" s="8" t="s">
-        <v>231</v>
+        <v>224</v>
       </c>
       <c r="G8" s="8" t="s">
-        <v>161</v>
+        <v>154</v>
       </c>
       <c r="H8" s="8" t="s">
-        <v>249</v>
+        <v>242</v>
       </c>
     </row>
     <row r="9" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A9" s="8" t="s">
-        <v>167</v>
+        <v>160</v>
       </c>
       <c r="B9" s="10" t="s">
-        <v>201</v>
+        <v>194</v>
       </c>
       <c r="C9" s="15" t="s">
-        <v>166</v>
+        <v>159</v>
       </c>
       <c r="D9" s="15" t="s">
-        <v>217</v>
+        <v>210</v>
       </c>
       <c r="E9" s="11" t="s">
-        <v>166</v>
+        <v>159</v>
       </c>
       <c r="F9" s="8" t="s">
-        <v>232</v>
+        <v>225</v>
       </c>
       <c r="G9" s="8" t="s">
-        <v>166</v>
+        <v>159</v>
       </c>
       <c r="H9" s="8" t="s">
-        <v>250</v>
+        <v>243</v>
       </c>
     </row>
     <row r="10" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A10" s="8" t="s">
-        <v>168</v>
+        <v>161</v>
       </c>
       <c r="B10" s="10" t="s">
-        <v>202</v>
+        <v>195</v>
       </c>
       <c r="C10" s="15" t="s">
-        <v>172</v>
+        <v>165</v>
       </c>
       <c r="D10" s="15" t="s">
-        <v>333</v>
+        <v>319</v>
       </c>
       <c r="E10" s="11" t="s">
-        <v>174</v>
+        <v>167</v>
       </c>
       <c r="F10" s="8" t="s">
-        <v>233</v>
+        <v>226</v>
       </c>
       <c r="G10" s="8" t="s">
-        <v>174</v>
+        <v>167</v>
       </c>
       <c r="H10" s="8" t="s">
-        <v>251</v>
+        <v>244</v>
       </c>
     </row>
     <row r="11" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A11" s="8" t="s">
-        <v>169</v>
+        <v>162</v>
       </c>
       <c r="B11" s="10" t="s">
-        <v>203</v>
+        <v>196</v>
       </c>
       <c r="C11" s="15" t="s">
-        <v>173</v>
+        <v>166</v>
       </c>
       <c r="D11" s="15" t="s">
-        <v>334</v>
+        <v>320</v>
       </c>
       <c r="E11" s="11" t="s">
-        <v>175</v>
+        <v>168</v>
       </c>
       <c r="F11" s="8" t="s">
-        <v>234</v>
+        <v>227</v>
       </c>
       <c r="G11" s="8" t="s">
-        <v>179</v>
+        <v>172</v>
       </c>
       <c r="H11" s="8" t="s">
-        <v>252</v>
+        <v>245</v>
       </c>
     </row>
     <row r="12" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A12" s="8" t="s">
-        <v>170</v>
+        <v>163</v>
       </c>
       <c r="B12" s="10" t="s">
-        <v>204</v>
+        <v>197</v>
       </c>
       <c r="C12" s="15" t="s">
-        <v>169</v>
+        <v>162</v>
       </c>
       <c r="D12" s="15" t="s">
-        <v>335</v>
+        <v>321</v>
       </c>
       <c r="E12" s="11" t="s">
-        <v>172</v>
+        <v>165</v>
       </c>
       <c r="F12" s="8" t="s">
-        <v>218</v>
+        <v>211</v>
       </c>
       <c r="G12" s="8" t="s">
-        <v>175</v>
+        <v>168</v>
       </c>
       <c r="H12" s="8" t="s">
-        <v>253</v>
+        <v>246</v>
       </c>
     </row>
     <row r="13" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A13" s="8" t="s">
-        <v>171</v>
+        <v>164</v>
       </c>
       <c r="B13" s="10" t="s">
-        <v>205</v>
+        <v>198</v>
       </c>
       <c r="C13" s="15" t="s">
-        <v>179</v>
+        <v>172</v>
       </c>
       <c r="D13" s="15" t="s">
-        <v>236</v>
+        <v>229</v>
       </c>
       <c r="E13" s="11" t="s">
-        <v>179</v>
+        <v>172</v>
       </c>
       <c r="F13" s="8" t="s">
-        <v>235</v>
+        <v>228</v>
       </c>
       <c r="G13" s="8" t="s">
-        <v>168</v>
+        <v>161</v>
       </c>
       <c r="H13" s="8" t="s">
-        <v>219</v>
+        <v>212</v>
       </c>
     </row>
     <row r="14" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A14" s="8" t="s">
-        <v>172</v>
+        <v>165</v>
       </c>
       <c r="B14" s="10" t="s">
-        <v>226</v>
+        <v>219</v>
       </c>
       <c r="C14" s="15" t="s">
-        <v>168</v>
+        <v>161</v>
       </c>
       <c r="D14" s="15" t="s">
-        <v>336</v>
+        <v>322</v>
       </c>
       <c r="E14" s="11" t="s">
-        <v>171</v>
+        <v>164</v>
       </c>
       <c r="F14" s="8" t="s">
-        <v>236</v>
+        <v>229</v>
       </c>
       <c r="G14" s="8" t="s">
-        <v>173</v>
+        <v>166</v>
       </c>
       <c r="H14" s="8" t="s">
-        <v>254</v>
+        <v>247</v>
       </c>
     </row>
     <row r="15" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A15" s="8" t="s">
-        <v>173</v>
+        <v>166</v>
       </c>
       <c r="B15" s="10" t="s">
-        <v>206</v>
+        <v>199</v>
       </c>
       <c r="C15" s="15" t="s">
-        <v>170</v>
+        <v>163</v>
       </c>
       <c r="D15" s="15" t="s">
-        <v>238</v>
+        <v>231</v>
       </c>
       <c r="E15" s="11" t="s">
-        <v>169</v>
+        <v>162</v>
       </c>
       <c r="F15" s="8" t="s">
-        <v>237</v>
+        <v>230</v>
       </c>
       <c r="G15" s="8" t="s">
-        <v>172</v>
+        <v>165</v>
       </c>
       <c r="H15" s="8" t="s">
-        <v>255</v>
+        <v>248</v>
       </c>
     </row>
     <row r="16" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A16" s="8" t="s">
-        <v>174</v>
+        <v>167</v>
       </c>
       <c r="B16" s="10" t="s">
-        <v>207</v>
+        <v>200</v>
       </c>
       <c r="C16" s="15" t="s">
-        <v>175</v>
+        <v>168</v>
       </c>
       <c r="D16" s="15" t="s">
-        <v>220</v>
+        <v>213</v>
       </c>
       <c r="E16" s="11" t="s">
-        <v>168</v>
+        <v>161</v>
       </c>
       <c r="F16" s="8" t="s">
-        <v>238</v>
+        <v>231</v>
       </c>
       <c r="G16" s="8" t="s">
-        <v>169</v>
+        <v>162</v>
       </c>
       <c r="H16" s="8" t="s">
-        <v>256</v>
+        <v>249</v>
       </c>
     </row>
     <row r="17" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A17" s="8" t="s">
-        <v>175</v>
+        <v>168</v>
       </c>
       <c r="B17" s="10" t="s">
-        <v>208</v>
+        <v>201</v>
       </c>
       <c r="C17" s="15" t="s">
-        <v>174</v>
+        <v>167</v>
       </c>
       <c r="D17" s="15" t="s">
-        <v>337</v>
+        <v>323</v>
       </c>
       <c r="E17" s="11" t="s">
-        <v>173</v>
+        <v>166</v>
       </c>
       <c r="F17" s="8" t="s">
-        <v>239</v>
+        <v>232</v>
       </c>
       <c r="G17" s="8" t="s">
-        <v>186</v>
+        <v>179</v>
       </c>
       <c r="H17" s="8" t="s">
-        <v>221</v>
+        <v>214</v>
       </c>
     </row>
     <row r="18" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A18" s="8" t="s">
-        <v>176</v>
+        <v>169</v>
       </c>
       <c r="B18" s="10" t="s">
-        <v>209</v>
+        <v>202</v>
       </c>
       <c r="C18" s="15" t="s">
-        <v>171</v>
+        <v>164</v>
       </c>
       <c r="D18" s="15" t="s">
-        <v>338</v>
+        <v>324</v>
       </c>
       <c r="E18" s="11" t="s">
-        <v>185</v>
+        <v>178</v>
       </c>
       <c r="F18" s="8" t="s">
-        <v>209</v>
+        <v>202</v>
       </c>
       <c r="G18" s="8" t="s">
-        <v>170</v>
+        <v>163</v>
       </c>
       <c r="H18" s="8" t="s">
-        <v>257</v>
+        <v>250</v>
       </c>
     </row>
     <row r="19" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A19" s="8" t="s">
-        <v>177</v>
+        <v>170</v>
       </c>
       <c r="B19" s="10" t="s">
-        <v>210</v>
+        <v>203</v>
       </c>
       <c r="C19" s="15" t="s">
-        <v>185</v>
+        <v>178</v>
       </c>
       <c r="D19" s="15" t="s">
-        <v>259</v>
+        <v>252</v>
       </c>
       <c r="E19" s="11" t="s">
-        <v>176</v>
+        <v>169</v>
       </c>
       <c r="F19" s="8" t="s">
-        <v>240</v>
+        <v>233</v>
       </c>
       <c r="G19" s="8" t="s">
-        <v>191</v>
+        <v>184</v>
       </c>
       <c r="H19" s="8" t="s">
-        <v>257</v>
+        <v>250</v>
       </c>
     </row>
     <row r="20" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A20" s="8" t="s">
-        <v>178</v>
+        <v>171</v>
       </c>
       <c r="B20" s="10" t="s">
-        <v>210</v>
+        <v>203</v>
       </c>
       <c r="C20" s="15" t="s">
-        <v>180</v>
+        <v>173</v>
       </c>
       <c r="D20" s="15" t="s">
-        <v>259</v>
+        <v>252</v>
       </c>
       <c r="E20" s="11" t="s">
-        <v>170</v>
+        <v>163</v>
       </c>
       <c r="F20" s="8" t="s">
-        <v>222</v>
+        <v>215</v>
       </c>
       <c r="G20" s="8" t="s">
-        <v>194</v>
+        <v>187</v>
       </c>
       <c r="H20" s="8" t="s">
-        <v>258</v>
+        <v>251</v>
       </c>
     </row>
     <row r="21" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A21" s="8" t="s">
-        <v>185</v>
+        <v>178</v>
       </c>
       <c r="B21" s="10" t="s">
-        <v>211</v>
+        <v>204</v>
       </c>
       <c r="C21" s="15" t="s">
-        <v>176</v>
+        <v>169</v>
       </c>
       <c r="D21" s="15" t="s">
-        <v>228</v>
+        <v>221</v>
       </c>
       <c r="E21" s="11" t="s">
-        <v>186</v>
+        <v>179</v>
       </c>
       <c r="F21" s="8" t="s">
-        <v>222</v>
+        <v>215</v>
       </c>
       <c r="G21" s="8" t="s">
-        <v>171</v>
+        <v>164</v>
       </c>
       <c r="H21" s="8" t="s">
-        <v>259</v>
+        <v>252</v>
       </c>
     </row>
     <row r="22" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A22" s="8" t="s">
-        <v>179</v>
+        <v>172</v>
       </c>
       <c r="B22" s="10" t="s">
-        <v>227</v>
+        <v>220</v>
       </c>
       <c r="C22" s="15" t="s">
-        <v>189</v>
+        <v>182</v>
       </c>
       <c r="D22" s="15" t="s">
-        <v>223</v>
+        <v>216</v>
       </c>
       <c r="E22" s="11" t="s">
-        <v>191</v>
+        <v>184</v>
       </c>
       <c r="F22" s="8" t="s">
-        <v>222</v>
+        <v>215</v>
       </c>
       <c r="G22" s="8" t="s">
-        <v>176</v>
+        <v>169</v>
       </c>
       <c r="H22" s="8" t="s">
-        <v>260</v>
+        <v>253</v>
       </c>
     </row>
     <row r="23" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A23" s="8" t="s">
-        <v>180</v>
+        <v>173</v>
       </c>
       <c r="B23" s="10" t="s">
-        <v>212</v>
+        <v>205</v>
       </c>
       <c r="C23" s="15" t="s">
-        <v>177</v>
+        <v>170</v>
       </c>
       <c r="D23" s="15" t="s">
-        <v>261</v>
+        <v>254</v>
       </c>
       <c r="E23" s="11" t="s">
-        <v>180</v>
+        <v>173</v>
       </c>
       <c r="F23" s="8" t="s">
-        <v>228</v>
+        <v>221</v>
       </c>
       <c r="G23" s="8" t="s">
-        <v>181</v>
+        <v>174</v>
       </c>
       <c r="H23" s="8" t="s">
-        <v>260</v>
+        <v>253</v>
       </c>
     </row>
     <row r="24" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A24" s="8" t="s">
-        <v>181</v>
+        <v>174</v>
       </c>
       <c r="B24" s="10" t="s">
-        <v>213</v>
+        <v>206</v>
       </c>
       <c r="C24" s="15" t="s">
-        <v>183</v>
+        <v>176</v>
       </c>
       <c r="D24" s="15" t="s">
-        <v>262</v>
+        <v>255</v>
       </c>
       <c r="E24" s="11" t="s">
-        <v>177</v>
+        <v>170</v>
       </c>
       <c r="F24" s="8" t="s">
-        <v>214</v>
+        <v>207</v>
       </c>
       <c r="G24" s="8" t="s">
-        <v>195</v>
+        <v>188</v>
       </c>
       <c r="H24" s="8" t="s">
-        <v>241</v>
+        <v>234</v>
       </c>
     </row>
     <row r="25" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A25" s="8" t="s">
-        <v>182</v>
+        <v>175</v>
       </c>
       <c r="B25" s="10" t="s">
-        <v>214</v>
+        <v>207</v>
       </c>
       <c r="C25" s="15" t="s">
-        <v>187</v>
+        <v>180</v>
       </c>
       <c r="D25" s="15" t="s">
-        <v>215</v>
+        <v>208</v>
       </c>
       <c r="E25" s="11" t="s">
-        <v>181</v>
+        <v>174</v>
       </c>
       <c r="F25" s="8" t="s">
-        <v>241</v>
+        <v>234</v>
       </c>
       <c r="G25" s="8" t="s">
-        <v>193</v>
+        <v>186</v>
       </c>
       <c r="H25" s="8" t="s">
-        <v>261</v>
+        <v>254</v>
       </c>
     </row>
     <row r="26" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A26" s="8" t="s">
-        <v>183</v>
+        <v>176</v>
       </c>
       <c r="B26" s="10" t="s">
-        <v>214</v>
+        <v>207</v>
       </c>
       <c r="C26" s="15" t="s">
-        <v>195</v>
+        <v>188</v>
       </c>
       <c r="D26" s="15" t="s">
-        <v>224</v>
+        <v>217</v>
       </c>
       <c r="E26" s="11" t="s">
-        <v>192</v>
+        <v>185</v>
       </c>
       <c r="F26" s="8" t="s">
-        <v>242</v>
+        <v>235</v>
       </c>
       <c r="G26" s="8" t="s">
-        <v>185</v>
+        <v>178</v>
       </c>
       <c r="H26" s="8" t="s">
-        <v>262</v>
+        <v>255</v>
       </c>
     </row>
     <row r="27" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A27" s="8" t="s">
-        <v>184</v>
+        <v>177</v>
       </c>
       <c r="B27" s="10" t="s">
-        <v>215</v>
+        <v>208</v>
       </c>
       <c r="C27" s="15" t="s">
-        <v>188</v>
+        <v>181</v>
       </c>
       <c r="D27" s="15" t="s">
-        <v>224</v>
+        <v>217</v>
       </c>
       <c r="E27" s="11" t="s">
-        <v>193</v>
+        <v>186</v>
       </c>
       <c r="F27" s="8" t="s">
-        <v>243</v>
+        <v>236</v>
       </c>
       <c r="G27" s="8" t="s">
-        <v>180</v>
+        <v>173</v>
       </c>
       <c r="H27" s="8" t="s">
-        <v>263</v>
+        <v>256</v>
       </c>
     </row>
     <row r="28" spans="1:8" x14ac:dyDescent="0.2">
@@ -4369,1039 +4406,1017 @@
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:E79"/>
+  <dimension ref="A1:M76"/>
   <sheetViews>
-    <sheetView zoomScale="180" zoomScaleNormal="180" zoomScalePageLayoutView="180" workbookViewId="0">
-      <selection activeCell="D7" sqref="D7"/>
+    <sheetView tabSelected="1" topLeftCell="A46" zoomScale="180" zoomScaleNormal="180" zoomScalePageLayoutView="180" workbookViewId="0">
+      <selection activeCell="C5" sqref="C5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="13.83203125" customWidth="1"/>
-    <col min="2" max="2" width="10.83203125" style="1"/>
+    <col min="1" max="1" width="16.1640625" customWidth="1"/>
+    <col min="2" max="2" width="11.33203125" style="1" customWidth="1"/>
     <col min="3" max="3" width="10.1640625" style="12" customWidth="1"/>
-    <col min="4" max="4" width="10" style="1" customWidth="1"/>
-    <col min="5" max="5" width="10.83203125" style="1"/>
+    <col min="4" max="4" width="10" style="7" customWidth="1"/>
+    <col min="5" max="5" width="10.83203125" style="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" s="4" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="B1" s="16" t="s">
-        <v>157</v>
-      </c>
-      <c r="C1" s="16" t="s">
-        <v>158</v>
-      </c>
-      <c r="D1" s="16" t="s">
-        <v>159</v>
-      </c>
-      <c r="E1" s="16" t="s">
-        <v>160</v>
-      </c>
-    </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A2" t="s">
+    <row r="1" spans="1:13" s="4" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="B1" s="23" t="s">
+        <v>150</v>
+      </c>
+      <c r="C1" s="23" t="s">
+        <v>151</v>
+      </c>
+      <c r="D1" s="31" t="s">
+        <v>152</v>
+      </c>
+      <c r="E1" s="23" t="s">
+        <v>153</v>
+      </c>
+    </row>
+    <row r="2" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A2" s="4" t="s">
         <v>62</v>
       </c>
-      <c r="B2" s="1">
+      <c r="B2" s="12">
         <v>0</v>
       </c>
       <c r="C2" s="12">
         <v>0</v>
       </c>
-      <c r="D2" s="1">
-        <v>0</v>
-      </c>
-      <c r="E2" s="1">
-        <v>4.0000000000000001E-3</v>
-      </c>
-    </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A3" t="s">
+      <c r="D2" s="17">
+        <v>0</v>
+      </c>
+      <c r="E2" s="17">
+        <v>4.1933999999999999E-3</v>
+      </c>
+      <c r="F2" s="4"/>
+      <c r="G2" s="4"/>
+      <c r="H2" s="4"/>
+      <c r="I2" s="22"/>
+      <c r="J2" s="4"/>
+      <c r="K2" s="4"/>
+      <c r="L2" s="4"/>
+      <c r="M2" s="4"/>
+    </row>
+    <row r="3" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A3" s="4" t="s">
         <v>63</v>
       </c>
-      <c r="B3" s="1">
+      <c r="B3" s="12">
         <v>0</v>
       </c>
       <c r="C3" s="12">
         <v>0</v>
       </c>
-      <c r="D3" s="1">
-        <v>0</v>
-      </c>
-      <c r="E3" s="1">
-        <v>4.0000000000000001E-3</v>
-      </c>
-    </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A4" t="s">
+      <c r="D3" s="17">
+        <v>0</v>
+      </c>
+      <c r="E3" s="17">
+        <v>4.1933999999999999E-3</v>
+      </c>
+    </row>
+    <row r="4" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A4" s="4" t="s">
         <v>101</v>
       </c>
-      <c r="B4" s="1">
-        <v>0</v>
-      </c>
-      <c r="C4" s="12">
-        <v>2E-3</v>
-      </c>
-      <c r="D4" s="1">
-        <v>6.5000000000000002E-2</v>
-      </c>
-      <c r="E4" s="1">
-        <v>2.1000000000000001E-2</v>
-      </c>
-    </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A5" t="s">
-        <v>109</v>
-      </c>
-      <c r="B5" s="1">
+      <c r="B4" s="12">
+        <v>0</v>
+      </c>
+      <c r="C4" s="17">
+        <v>1.6845790000000001E-3</v>
+      </c>
+      <c r="D4" s="17">
+        <v>8.6664510000000004E-3</v>
+      </c>
+      <c r="E4" s="17">
+        <v>4.6127399999999999E-2</v>
+      </c>
+    </row>
+    <row r="5" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A5" s="4" t="s">
+        <v>64</v>
+      </c>
+      <c r="B5" s="12">
+        <v>0</v>
+      </c>
+      <c r="C5" s="12">
+        <v>0</v>
+      </c>
+      <c r="D5" s="17">
+        <v>6.4998390000000003E-3</v>
+      </c>
+      <c r="E5" s="17">
+        <v>5.8707599999999999E-2</v>
+      </c>
+    </row>
+    <row r="6" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A6" s="4" t="s">
+        <v>65</v>
+      </c>
+      <c r="B6" s="17">
+        <v>4.7931750000000002E-3</v>
+      </c>
+      <c r="C6" s="17">
+        <v>1.6845789999999999E-2</v>
+      </c>
+      <c r="D6" s="17">
+        <v>1.9499510000000001E-2</v>
+      </c>
+      <c r="E6" s="17">
+        <v>5.4514199999999999E-2</v>
+      </c>
+    </row>
+    <row r="7" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A7" s="4" t="s">
+        <v>345</v>
+      </c>
+      <c r="B7" s="12">
+        <v>0</v>
+      </c>
+      <c r="C7" s="17">
+        <v>5.0537380000000003E-3</v>
+      </c>
+      <c r="D7" s="17">
+        <v>1.299968E-2</v>
+      </c>
+      <c r="E7" s="17">
+        <v>4.6127399999999999E-2</v>
+      </c>
+    </row>
+    <row r="8" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A8" s="4" t="s">
+        <v>66</v>
+      </c>
+      <c r="B8" s="12">
         <v>5.0000000000000001E-3</v>
       </c>
-      <c r="C5" s="12">
-        <v>2E-3</v>
-      </c>
-      <c r="D5" s="1">
-        <v>0.01</v>
-      </c>
-      <c r="E5" s="1">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A6" t="s">
-        <v>64</v>
-      </c>
-      <c r="B6" s="1">
-        <v>0</v>
-      </c>
-      <c r="C6" s="12">
-        <v>0</v>
-      </c>
-      <c r="D6" s="1">
-        <v>2E-3</v>
-      </c>
-      <c r="E6" s="1">
-        <v>0.03</v>
-      </c>
-    </row>
-    <row r="7" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A7" t="s">
-        <v>65</v>
-      </c>
-      <c r="B7" s="1">
+      <c r="C8" s="17">
+        <v>1.6845790000000001E-3</v>
+      </c>
+      <c r="D8" s="17">
+        <v>6.499838E-3</v>
+      </c>
+      <c r="E8" s="17">
+        <v>2.9353799999999999E-2</v>
+      </c>
+    </row>
+    <row r="9" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A9" s="4" t="s">
+        <v>67</v>
+      </c>
+      <c r="B9" s="12">
+        <v>0</v>
+      </c>
+      <c r="C9" s="12">
+        <v>0</v>
+      </c>
+      <c r="D9" s="17">
+        <v>8.6664510000000004E-3</v>
+      </c>
+      <c r="E9" s="12">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="10" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A10" s="4" t="s">
+        <v>68</v>
+      </c>
+      <c r="B10" s="12">
+        <v>0</v>
+      </c>
+      <c r="C10" s="12">
+        <v>0</v>
+      </c>
+      <c r="D10" s="17">
+        <v>0</v>
+      </c>
+      <c r="E10" s="17">
+        <v>8.3867999999999998E-3</v>
+      </c>
+    </row>
+    <row r="11" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A11" s="4" t="s">
+        <v>69</v>
+      </c>
+      <c r="B11" s="12">
+        <v>0</v>
+      </c>
+      <c r="C11" s="17">
+        <v>6.7383180000000001E-3</v>
+      </c>
+      <c r="D11" s="17">
+        <v>4.3332259999999999E-3</v>
+      </c>
+      <c r="E11" s="17">
+        <v>4.1933999999999999E-3</v>
+      </c>
+    </row>
+    <row r="12" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A12" s="4" t="s">
+        <v>70</v>
+      </c>
+      <c r="B12" s="12">
         <v>5.0000000000000001E-3</v>
       </c>
-      <c r="C7" s="12">
-        <v>1.4999999999999999E-2</v>
-      </c>
-      <c r="D7" s="1">
-        <v>1.9E-2</v>
-      </c>
-      <c r="E7" s="1">
-        <v>4.2000000000000003E-2</v>
-      </c>
-    </row>
-    <row r="8" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A8" s="4" t="s">
-        <v>319</v>
-      </c>
-      <c r="B8" s="1">
-        <v>0</v>
-      </c>
-      <c r="C8" s="12">
-        <v>0</v>
-      </c>
-      <c r="D8" s="1">
-        <v>4.0000000000000001E-3</v>
-      </c>
-      <c r="E8" s="1">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="9" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A9" t="s">
-        <v>66</v>
-      </c>
-      <c r="B9" s="1">
-        <v>0</v>
-      </c>
-      <c r="C9" s="12">
-        <v>2E-3</v>
-      </c>
-      <c r="D9" s="1">
-        <v>6.0000000000000001E-3</v>
-      </c>
-      <c r="E9" s="1">
-        <v>2.9000000000000001E-2</v>
-      </c>
-    </row>
-    <row r="10" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A10" t="s">
-        <v>67</v>
-      </c>
-      <c r="B10" s="1">
-        <v>0</v>
-      </c>
-      <c r="C10" s="12">
-        <v>0</v>
-      </c>
-      <c r="D10" s="1">
-        <v>6.0000000000000001E-3</v>
-      </c>
-      <c r="E10" s="1">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="11" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A11" t="s">
-        <v>68</v>
-      </c>
-      <c r="B11" s="1">
-        <v>0</v>
-      </c>
-      <c r="C11" s="12">
-        <v>0</v>
-      </c>
-      <c r="D11" s="1">
-        <v>0</v>
-      </c>
-      <c r="E11" s="1">
-        <v>4.0000000000000001E-3</v>
-      </c>
-    </row>
-    <row r="12" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A12" t="s">
-        <v>69</v>
-      </c>
-      <c r="B12" s="1">
-        <v>0</v>
-      </c>
-      <c r="C12" s="12">
-        <v>3.0000000000000001E-3</v>
-      </c>
-      <c r="D12" s="1">
-        <v>2E-3</v>
-      </c>
-      <c r="E12" s="1">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="13" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A13" t="s">
-        <v>70</v>
-      </c>
-      <c r="B13" s="1">
+      <c r="C12" s="17">
+        <v>6.5698590000000001E-2</v>
+      </c>
+      <c r="D12" s="17">
+        <v>7.3664830000000001E-2</v>
+      </c>
+      <c r="E12" s="17">
+        <v>7.1287799999999998E-2</v>
+      </c>
+    </row>
+    <row r="13" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A13" s="4" t="s">
+        <v>71</v>
+      </c>
+      <c r="B13" s="12">
         <v>0</v>
       </c>
       <c r="C13" s="12">
-        <v>1.7000000000000001E-2</v>
-      </c>
-      <c r="D13" s="1">
-        <v>1.9E-2</v>
-      </c>
-      <c r="E13" s="1">
-        <v>2.5000000000000001E-2</v>
-      </c>
-    </row>
-    <row r="14" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A14" t="s">
-        <v>71</v>
-      </c>
-      <c r="B14" s="1">
-        <v>0</v>
-      </c>
-      <c r="C14" s="12">
-        <v>0</v>
-      </c>
-      <c r="D14" s="1">
-        <v>1.2999999999999999E-2</v>
-      </c>
-      <c r="E14" s="1">
-        <v>4.2000000000000003E-2</v>
-      </c>
-    </row>
-    <row r="15" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A15" t="s">
+        <v>0</v>
+      </c>
+      <c r="D13" s="17">
+        <v>1.5166290000000001E-2</v>
+      </c>
+      <c r="E13" s="17">
+        <v>4.1933999999999999E-2</v>
+      </c>
+    </row>
+    <row r="14" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A14" s="4" t="s">
         <v>72</v>
       </c>
-      <c r="B15" s="1">
-        <v>0</v>
-      </c>
-      <c r="C15" s="12">
-        <v>2E-3</v>
-      </c>
-      <c r="D15" s="1">
-        <v>8.9999999999999993E-3</v>
-      </c>
-      <c r="E15" s="1">
-        <v>2.5000000000000001E-2</v>
-      </c>
-    </row>
-    <row r="16" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A16" t="s">
+      <c r="B14" s="12">
+        <v>0</v>
+      </c>
+      <c r="C14" s="17">
+        <v>1.6845790000000001E-3</v>
+      </c>
+      <c r="D14" s="17">
+        <v>1.5166290000000001E-2</v>
+      </c>
+      <c r="E14" s="17">
+        <v>4.1933999999999999E-2</v>
+      </c>
+    </row>
+    <row r="15" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A15" s="4" t="s">
         <v>73</v>
       </c>
-      <c r="B16" s="1">
-        <v>0</v>
-      </c>
-      <c r="C16" s="12">
-        <v>0</v>
-      </c>
-      <c r="D16" s="1">
-        <v>6.0000000000000001E-3</v>
-      </c>
-      <c r="E16" s="1">
-        <v>1.2999999999999999E-2</v>
+      <c r="B15" s="12">
+        <v>0</v>
+      </c>
+      <c r="C15" s="17">
+        <v>3.369159E-3</v>
+      </c>
+      <c r="D15" s="17">
+        <v>8.6664510000000004E-3</v>
+      </c>
+      <c r="E15" s="17">
+        <v>2.0967E-2</v>
+      </c>
+    </row>
+    <row r="16" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A16" s="4" t="s">
+        <v>74</v>
+      </c>
+      <c r="B16" s="12">
+        <v>0</v>
+      </c>
+      <c r="C16" s="17">
+        <v>2.0214949999999999E-2</v>
+      </c>
+      <c r="D16" s="17">
+        <v>1.9499510000000001E-2</v>
+      </c>
+      <c r="E16" s="17">
+        <v>1.67736E-2</v>
       </c>
     </row>
     <row r="17" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A17" t="s">
-        <v>74</v>
-      </c>
-      <c r="B17" s="1">
-        <v>0</v>
-      </c>
-      <c r="C17" s="12">
-        <v>0.02</v>
-      </c>
-      <c r="D17" s="1">
-        <v>0.02</v>
-      </c>
-      <c r="E17" s="1">
-        <v>1.2999999999999999E-2</v>
+      <c r="A17" s="4" t="s">
+        <v>75</v>
+      </c>
+      <c r="B17" s="17">
+        <v>9.5863500000000004E-3</v>
+      </c>
+      <c r="C17" s="17">
+        <v>5.0537380000000003E-3</v>
+      </c>
+      <c r="D17" s="17">
+        <v>1.083306E-2</v>
+      </c>
+      <c r="E17" s="17">
+        <v>3.3547199999999999E-2</v>
       </c>
     </row>
     <row r="18" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A18" t="s">
-        <v>75</v>
-      </c>
-      <c r="B18" s="1">
+      <c r="A18" s="4" t="s">
+        <v>76</v>
+      </c>
+      <c r="B18" s="12">
         <v>0</v>
       </c>
       <c r="C18" s="12">
-        <v>2E-3</v>
-      </c>
-      <c r="D18" s="1">
-        <v>6.0000000000000001E-3</v>
-      </c>
-      <c r="E18" s="1">
+        <v>0</v>
+      </c>
+      <c r="D18" s="17">
+        <v>0</v>
+      </c>
+      <c r="E18" s="12">
         <v>0</v>
       </c>
     </row>
     <row r="19" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A19" t="s">
-        <v>76</v>
-      </c>
-      <c r="B19" s="1">
-        <v>0</v>
+      <c r="A19" s="4" t="s">
+        <v>346</v>
+      </c>
+      <c r="B19" s="12">
+        <v>5.0000000000000001E-3</v>
       </c>
       <c r="C19" s="12">
         <v>0</v>
       </c>
-      <c r="D19" s="1">
-        <v>0</v>
-      </c>
-      <c r="E19" s="1">
-        <v>1.7000000000000001E-2</v>
+      <c r="D19" s="17">
+        <v>1.5166290000000001E-2</v>
+      </c>
+      <c r="E19" s="17">
+        <v>4.1933999999999999E-3</v>
       </c>
     </row>
     <row r="20" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A20" t="s">
-        <v>105</v>
-      </c>
-      <c r="B20" s="1">
-        <v>0</v>
-      </c>
-      <c r="C20" s="12">
-        <v>0</v>
-      </c>
-      <c r="D20" s="1">
-        <v>6.0000000000000001E-3</v>
-      </c>
-      <c r="E20" s="1">
-        <v>0</v>
+      <c r="A20" s="4" t="s">
+        <v>77</v>
+      </c>
+      <c r="B20" s="12">
+        <v>0</v>
+      </c>
+      <c r="C20" s="17">
+        <v>1.179206E-2</v>
+      </c>
+      <c r="D20" s="17">
+        <v>8.6664510000000004E-3</v>
+      </c>
+      <c r="E20" s="17">
+        <v>1.67736E-2</v>
       </c>
     </row>
     <row r="21" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A21" t="s">
-        <v>77</v>
-      </c>
-      <c r="B21" s="1">
+      <c r="A21" s="4" t="s">
+        <v>78</v>
+      </c>
+      <c r="B21" s="12">
         <v>0</v>
       </c>
       <c r="C21" s="12">
-        <v>3.0000000000000001E-3</v>
-      </c>
-      <c r="D21" s="1">
-        <v>6.0000000000000001E-3</v>
-      </c>
-      <c r="E21" s="1">
-        <v>4.0000000000000001E-3</v>
+        <v>0</v>
+      </c>
+      <c r="D21" s="17">
+        <v>1.5166290000000001E-2</v>
+      </c>
+      <c r="E21" s="17">
+        <v>2.0967E-2</v>
       </c>
     </row>
     <row r="22" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A22" t="s">
-        <v>78</v>
-      </c>
-      <c r="B22" s="1">
-        <v>0</v>
-      </c>
-      <c r="C22" s="12">
-        <v>0</v>
-      </c>
-      <c r="D22" s="1">
-        <v>1.2999999999999999E-2</v>
-      </c>
-      <c r="E22" s="1">
-        <v>0.02</v>
+      <c r="A22" s="4" t="s">
+        <v>79</v>
+      </c>
+      <c r="B22" s="12">
+        <v>0</v>
+      </c>
+      <c r="C22" s="17">
+        <v>2.3584109999999998E-2</v>
+      </c>
+      <c r="D22" s="17">
+        <v>3.6832419999999998E-2</v>
+      </c>
+      <c r="E22" s="17">
+        <v>4.1933999999999999E-3</v>
       </c>
     </row>
     <row r="23" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A23" t="s">
-        <v>79</v>
-      </c>
-      <c r="B23" s="1">
+      <c r="A23" s="4" t="s">
+        <v>80</v>
+      </c>
+      <c r="B23" s="12">
         <v>0</v>
       </c>
       <c r="C23" s="12">
-        <v>7.0000000000000001E-3</v>
-      </c>
-      <c r="D23" s="1">
-        <v>0.24</v>
-      </c>
-      <c r="E23" s="1">
-        <v>0</v>
+        <v>5.0000000000000001E-3</v>
+      </c>
+      <c r="D23" s="17">
+        <v>1.7332899999999998E-2</v>
+      </c>
+      <c r="E23" s="17">
+        <v>1.25802E-2</v>
       </c>
     </row>
     <row r="24" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A24" s="4" t="s">
-        <v>80</v>
-      </c>
-      <c r="B24" s="1">
-        <v>0</v>
-      </c>
-      <c r="C24" s="12">
+        <v>81</v>
+      </c>
+      <c r="B24" s="12">
         <v>5.0000000000000001E-3</v>
       </c>
-      <c r="D24" s="1">
-        <v>8.9999999999999993E-3</v>
-      </c>
-      <c r="E24" s="1">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="25" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="C24" s="17">
+        <v>5.053737E-3</v>
+      </c>
+      <c r="D24" s="17">
+        <v>5.1998700000000002E-2</v>
+      </c>
+      <c r="E24" s="17">
+        <v>7.1287799999999998E-2</v>
+      </c>
+    </row>
+    <row r="25" spans="1:5" s="4" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A25" s="4" t="s">
-        <v>81</v>
-      </c>
-      <c r="B25" s="1">
-        <v>5.0000000000000001E-3</v>
+        <v>103</v>
+      </c>
+      <c r="B25" s="12">
+        <v>0</v>
       </c>
       <c r="C25" s="12">
+        <v>0</v>
+      </c>
+      <c r="D25" s="17">
         <v>2E-3</v>
       </c>
-      <c r="D25" s="1">
-        <v>4.1000000000000002E-2</v>
-      </c>
-      <c r="E25" s="1">
-        <v>3.7999999999999999E-2</v>
+      <c r="E25" s="12">
+        <v>0</v>
       </c>
     </row>
     <row r="26" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A26" s="4" t="s">
-        <v>110</v>
-      </c>
-      <c r="B26" s="1">
+        <v>347</v>
+      </c>
+      <c r="B26" s="12">
         <v>0</v>
       </c>
       <c r="C26" s="12">
         <v>0</v>
       </c>
-      <c r="D26" s="1">
-        <v>2E-3</v>
-      </c>
-      <c r="E26" s="1">
-        <v>0</v>
+      <c r="D26" s="17">
+        <v>8.6664510000000004E-3</v>
+      </c>
+      <c r="E26" s="17">
+        <v>8.3867990000000003E-3</v>
       </c>
     </row>
     <row r="27" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A27" s="4" t="s">
-        <v>313</v>
-      </c>
-      <c r="B27" s="1">
+        <v>82</v>
+      </c>
+      <c r="B27" s="12">
         <v>0</v>
       </c>
       <c r="C27" s="12">
         <v>0</v>
       </c>
-      <c r="D27" s="1">
-        <v>2E-3</v>
-      </c>
-      <c r="E27" s="1">
-        <v>0</v>
+      <c r="D27" s="17">
+        <v>4.3332249999999996E-3</v>
+      </c>
+      <c r="E27" s="17">
+        <v>1.67736E-2</v>
       </c>
     </row>
     <row r="28" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A28" s="4" t="s">
-        <v>82</v>
-      </c>
-      <c r="B28" s="1">
+        <v>83</v>
+      </c>
+      <c r="B28" s="12">
         <v>0</v>
       </c>
       <c r="C28" s="12">
         <v>0</v>
       </c>
-      <c r="D28" s="1">
-        <v>0</v>
-      </c>
-      <c r="E28" s="1">
-        <v>4.0000000000000001E-3</v>
+      <c r="D28" s="17">
+        <v>1.5166290000000001E-2</v>
+      </c>
+      <c r="E28" s="17">
+        <v>5.4514199999999999E-2</v>
       </c>
     </row>
     <row r="29" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A29" t="s">
-        <v>83</v>
-      </c>
-      <c r="B29" s="1">
-        <v>0</v>
-      </c>
-      <c r="C29" s="12">
-        <v>0</v>
-      </c>
-      <c r="D29" s="1">
-        <v>6.0000000000000001E-3</v>
-      </c>
-      <c r="E29" s="1">
-        <v>2.9000000000000001E-2</v>
+      <c r="A29" s="4" t="s">
+        <v>348</v>
+      </c>
+      <c r="B29" s="12">
+        <v>0</v>
+      </c>
+      <c r="C29" s="17">
+        <v>1.6845790000000001E-3</v>
+      </c>
+      <c r="D29" s="17">
+        <v>8.6664510000000004E-3</v>
+      </c>
+      <c r="E29" s="17">
+        <v>2.5160399999999999E-2</v>
       </c>
     </row>
     <row r="30" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A30" s="4" t="s">
-        <v>314</v>
-      </c>
-      <c r="B30" s="1">
+        <v>84</v>
+      </c>
+      <c r="B30" s="12">
         <v>0</v>
       </c>
       <c r="C30" s="12">
         <v>0</v>
       </c>
-      <c r="D30" s="1">
-        <v>2E-3</v>
-      </c>
-      <c r="E30" s="1">
-        <v>4.0000000000000001E-3</v>
+      <c r="D30" s="17">
+        <v>1.5166290000000001E-2</v>
+      </c>
+      <c r="E30" s="17">
+        <v>1.25802E-2</v>
       </c>
     </row>
     <row r="31" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A31" t="s">
-        <v>84</v>
-      </c>
-      <c r="B31" s="1">
-        <v>0</v>
-      </c>
-      <c r="C31" s="12">
-        <v>0</v>
-      </c>
-      <c r="D31" s="1">
-        <v>6.0000000000000001E-3</v>
-      </c>
-      <c r="E31" s="1">
-        <v>1.2999999999999999E-2</v>
+      <c r="A31" s="4" t="s">
+        <v>85</v>
+      </c>
+      <c r="B31" s="12">
+        <v>5.0000000000000001E-3</v>
+      </c>
+      <c r="C31" s="17">
+        <v>4.7168219999999997E-2</v>
+      </c>
+      <c r="D31" s="17">
+        <v>6.4998379999999994E-2</v>
+      </c>
+      <c r="E31" s="17">
+        <v>7.1287790000000004E-2</v>
       </c>
     </row>
     <row r="32" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A32" t="s">
-        <v>85</v>
-      </c>
-      <c r="B32" s="1">
-        <v>5.0000000000000001E-3</v>
+      <c r="A32" s="4" t="s">
+        <v>86</v>
+      </c>
+      <c r="B32" s="12">
+        <v>0</v>
       </c>
       <c r="C32" s="12">
-        <v>0.04</v>
-      </c>
-      <c r="D32" s="1">
-        <v>0.05</v>
-      </c>
-      <c r="E32" s="1">
-        <v>7.0000000000000007E-2</v>
+        <v>0</v>
+      </c>
+      <c r="D32" s="17">
+        <v>2.5999350000000001E-2</v>
+      </c>
+      <c r="E32" s="17">
+        <v>5.8707589999999997E-2</v>
       </c>
     </row>
     <row r="33" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A33" t="s">
-        <v>86</v>
-      </c>
-      <c r="B33" s="1">
-        <v>0</v>
-      </c>
-      <c r="C33" s="12">
-        <v>0</v>
-      </c>
-      <c r="D33" s="1">
-        <v>2.1999999999999999E-2</v>
-      </c>
-      <c r="E33" s="1">
-        <v>5.8999999999999997E-2</v>
+      <c r="A33" s="4" t="s">
+        <v>87</v>
+      </c>
+      <c r="B33" s="12">
+        <v>0</v>
+      </c>
+      <c r="C33" s="17">
+        <v>1.6845790000000001E-3</v>
+      </c>
+      <c r="D33" s="17">
+        <v>2.166613E-3</v>
+      </c>
+      <c r="E33" s="17">
+        <v>4.1933999999999999E-3</v>
       </c>
     </row>
     <row r="34" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A34" t="s">
-        <v>87</v>
-      </c>
-      <c r="B34" s="1">
+      <c r="A34" s="4" t="s">
+        <v>88</v>
+      </c>
+      <c r="B34" s="12">
         <v>0</v>
       </c>
       <c r="C34" s="12">
-        <v>2E-3</v>
-      </c>
-      <c r="D34" s="1">
-        <v>0.02</v>
-      </c>
-      <c r="E34" s="1">
-        <v>4.0000000000000001E-3</v>
+        <v>0</v>
+      </c>
+      <c r="D34" s="17">
+        <v>2.166613E-3</v>
+      </c>
+      <c r="E34" s="17">
+        <v>1.67736E-2</v>
       </c>
     </row>
     <row r="35" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A35" t="s">
-        <v>88</v>
-      </c>
-      <c r="B35" s="1">
+      <c r="A35" s="4" t="s">
+        <v>89</v>
+      </c>
+      <c r="B35" s="12">
         <v>0</v>
       </c>
       <c r="C35" s="12">
         <v>0</v>
       </c>
-      <c r="D35" s="1">
-        <v>0.02</v>
-      </c>
-      <c r="E35" s="1">
-        <v>1.7000000000000001E-2</v>
+      <c r="D35" s="17">
+        <v>2.166613E-3</v>
+      </c>
+      <c r="E35" s="17">
+        <v>1.25802E-2</v>
       </c>
     </row>
     <row r="36" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A36" t="s">
-        <v>89</v>
-      </c>
-      <c r="B36" s="1">
-        <v>0</v>
-      </c>
-      <c r="C36" s="12">
-        <v>0</v>
-      </c>
-      <c r="D36" s="1">
-        <v>0</v>
-      </c>
-      <c r="E36" s="1">
-        <v>4.0000000000000001E-3</v>
+      <c r="A36" s="4" t="s">
+        <v>90</v>
+      </c>
+      <c r="B36" s="17">
+        <v>1.9172700000000001E-2</v>
+      </c>
+      <c r="C36" s="17">
+        <v>2.5268700000000002E-2</v>
+      </c>
+      <c r="D36" s="17">
+        <v>2.8165969999999999E-2</v>
+      </c>
+      <c r="E36" s="17">
+        <v>5.8707599999999999E-2</v>
       </c>
     </row>
     <row r="37" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A37" t="s">
-        <v>90</v>
-      </c>
-      <c r="B37" s="12">
-        <v>0.01</v>
+      <c r="A37" s="4" t="s">
+        <v>91</v>
+      </c>
+      <c r="B37" s="17">
+        <v>9.5863500000000004E-3</v>
       </c>
       <c r="C37" s="12">
-        <v>1.2E-2</v>
-      </c>
-      <c r="D37" s="1">
-        <v>1.2999999999999999E-2</v>
-      </c>
-      <c r="E37" s="1">
-        <v>2.9000000000000001E-2</v>
-      </c>
-    </row>
-    <row r="38" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A38" t="s">
-        <v>106</v>
-      </c>
-      <c r="B38" s="1">
-        <v>0</v>
-      </c>
-      <c r="C38" s="12">
-        <v>0</v>
-      </c>
-      <c r="D38" s="1">
-        <v>0</v>
-      </c>
-      <c r="E38" s="1">
-        <v>8.0000000000000002E-3</v>
-      </c>
-    </row>
-    <row r="39" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A39" t="s">
-        <v>91</v>
-      </c>
-      <c r="B39" s="1">
-        <v>5.0000000000000001E-3</v>
+        <v>3.2000000000000001E-2</v>
+      </c>
+      <c r="D37" s="17">
+        <v>1.083306E-2</v>
+      </c>
+      <c r="E37" s="17">
+        <v>3.7740599999999999E-2</v>
+      </c>
+    </row>
+    <row r="38" spans="1:5" s="4" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A38" s="4" t="s">
+        <v>356</v>
+      </c>
+      <c r="B38" s="17">
+        <v>0</v>
+      </c>
+      <c r="C38" s="17">
+        <v>5.053737E-3</v>
+      </c>
+      <c r="D38" s="17">
+        <v>1.299968E-2</v>
+      </c>
+      <c r="E38" s="17">
+        <v>1.25802E-2</v>
+      </c>
+    </row>
+    <row r="39" spans="1:5" s="4" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A39" s="4" t="s">
+        <v>349</v>
+      </c>
+      <c r="B39" s="12">
+        <v>0</v>
       </c>
       <c r="C39" s="12">
-        <v>3.2000000000000001E-2</v>
-      </c>
-      <c r="D39" s="1">
-        <v>6.0000000000000001E-3</v>
-      </c>
-      <c r="E39" s="1">
-        <v>3.3000000000000002E-2</v>
+        <v>0</v>
+      </c>
+      <c r="D39" s="17">
+        <v>6.499838E-3</v>
+      </c>
+      <c r="E39" s="17">
+        <v>8.3867999999999998E-3</v>
       </c>
     </row>
     <row r="40" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A40" s="4" t="s">
-        <v>104</v>
-      </c>
-      <c r="B40" s="1">
+        <v>350</v>
+      </c>
+      <c r="B40" s="12">
         <v>0</v>
       </c>
       <c r="C40" s="12">
         <v>0</v>
       </c>
-      <c r="D40" s="1">
-        <v>4.2999999999999997E-2</v>
-      </c>
-      <c r="E40" s="1">
-        <v>0</v>
+      <c r="D40" s="17">
+        <v>2.166613E-3</v>
+      </c>
+      <c r="E40" s="17">
+        <v>2.5160399999999999E-2</v>
       </c>
     </row>
     <row r="41" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A41" s="4" t="s">
-        <v>315</v>
-      </c>
-      <c r="B41" s="1">
-        <v>0</v>
-      </c>
-      <c r="C41" s="12">
-        <v>0</v>
-      </c>
-      <c r="D41" s="1">
+        <v>92</v>
+      </c>
+      <c r="B41" s="17">
+        <v>9.5863489999999992E-3</v>
+      </c>
+      <c r="C41" s="17">
+        <v>1.347663E-2</v>
+      </c>
+      <c r="D41" s="17">
+        <v>1.9499519999999999E-2</v>
+      </c>
+      <c r="E41" s="17">
+        <v>0.1090284</v>
+      </c>
+    </row>
+    <row r="42" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A42" s="4" t="s">
+        <v>93</v>
+      </c>
+      <c r="B42" s="12">
+        <v>0</v>
+      </c>
+      <c r="C42" s="17">
+        <v>1.6845790000000001E-3</v>
+      </c>
+      <c r="D42" s="17">
         <v>2E-3</v>
       </c>
-      <c r="E41" s="1">
-        <v>1.7000000000000001E-2</v>
-      </c>
-    </row>
-    <row r="42" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A42" t="s">
-        <v>92</v>
-      </c>
-      <c r="B42" s="12">
-        <v>0.01</v>
-      </c>
-      <c r="C42" s="12">
-        <v>7.0000000000000001E-3</v>
-      </c>
-      <c r="D42" s="1">
-        <v>0.151</v>
-      </c>
-      <c r="E42" s="1">
-        <v>0.08</v>
+      <c r="E42" s="17">
+        <v>4.1933999999999999E-3</v>
       </c>
     </row>
     <row r="43" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A43" t="s">
-        <v>93</v>
-      </c>
-      <c r="B43" s="1">
-        <v>0</v>
-      </c>
-      <c r="C43" s="12">
-        <v>0</v>
-      </c>
-      <c r="D43" s="1">
-        <v>2E-3</v>
-      </c>
-      <c r="E43" s="1">
+      <c r="A43" s="4" t="s">
+        <v>94</v>
+      </c>
+      <c r="B43" s="12">
+        <v>0</v>
+      </c>
+      <c r="C43" s="17">
+        <v>1.6845790000000001E-3</v>
+      </c>
+      <c r="D43" s="17">
         <v>4.0000000000000001E-3</v>
       </c>
+      <c r="E43" s="17">
+        <v>5.4514199999999999E-2</v>
+      </c>
     </row>
     <row r="44" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A44" t="s">
-        <v>108</v>
-      </c>
-      <c r="B44" s="1">
-        <v>0</v>
-      </c>
-      <c r="C44" s="12">
-        <v>0</v>
-      </c>
-      <c r="D44" s="1">
+      <c r="A44" s="4" t="s">
+        <v>351</v>
+      </c>
+      <c r="B44" s="12">
+        <v>0</v>
+      </c>
+      <c r="C44" s="17">
+        <v>3.3691580000000001E-3</v>
+      </c>
+      <c r="D44" s="17">
+        <v>2.1666120000000001E-2</v>
+      </c>
+      <c r="E44" s="17">
+        <v>4.1933999999999999E-3</v>
+      </c>
+    </row>
+    <row r="45" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A45" s="4" t="s">
+        <v>95</v>
+      </c>
+      <c r="B45" s="12">
+        <v>0</v>
+      </c>
+      <c r="C45" s="17">
+        <v>3.3691580000000001E-3</v>
+      </c>
+      <c r="D45" s="17">
         <v>4.0000000000000001E-3</v>
       </c>
-      <c r="E44" s="1">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="45" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A45" t="s">
-        <v>94</v>
-      </c>
-      <c r="B45" s="1">
-        <v>0</v>
-      </c>
-      <c r="C45" s="12">
-        <v>2.3E-2</v>
-      </c>
-      <c r="D45" s="1">
-        <v>4.0000000000000001E-3</v>
-      </c>
-      <c r="E45" s="1">
-        <v>0.05</v>
+      <c r="E45" s="17">
+        <v>4.1933999999999999E-3</v>
       </c>
     </row>
     <row r="46" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A46" s="4" t="s">
-        <v>316</v>
-      </c>
-      <c r="B46" s="1">
-        <v>0</v>
-      </c>
-      <c r="C46" s="12">
-        <v>2E-3</v>
-      </c>
-      <c r="D46" s="1">
-        <v>0.11</v>
-      </c>
-      <c r="E46" s="1">
-        <v>8.0000000000000002E-3</v>
+        <v>96</v>
+      </c>
+      <c r="B46" s="12">
+        <v>0</v>
+      </c>
+      <c r="C46" s="17">
+        <v>1.6845790000000001E-3</v>
+      </c>
+      <c r="D46" s="17">
+        <v>1.9499510000000001E-2</v>
+      </c>
+      <c r="E46" s="17">
+        <v>8.3867999999999998E-3</v>
       </c>
     </row>
     <row r="47" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A47" t="s">
-        <v>95</v>
-      </c>
-      <c r="B47" s="1">
+      <c r="A47" s="4" t="s">
+        <v>352</v>
+      </c>
+      <c r="B47" s="12">
         <v>0</v>
       </c>
       <c r="C47" s="12">
-        <v>2E-3</v>
-      </c>
-      <c r="D47" s="1">
-        <v>4.0000000000000001E-3</v>
-      </c>
-      <c r="E47" s="1">
-        <v>0</v>
+        <v>0</v>
+      </c>
+      <c r="D47" s="17">
+        <v>4.9832090000000002E-2</v>
+      </c>
+      <c r="E47" s="17">
+        <v>4.6127399999999999E-2</v>
       </c>
     </row>
     <row r="48" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A48" s="4" t="s">
-        <v>96</v>
-      </c>
-      <c r="B48" s="1">
-        <v>0</v>
-      </c>
-      <c r="C48" s="12">
+        <v>97</v>
+      </c>
+      <c r="B48" s="12">
+        <v>0</v>
+      </c>
+      <c r="C48" s="17">
+        <v>3.3691580000000001E-3</v>
+      </c>
+      <c r="D48" s="17">
+        <v>8.6664510000000004E-3</v>
+      </c>
+      <c r="E48" s="17">
+        <v>1.25802E-2</v>
+      </c>
+    </row>
+    <row r="49" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A49" s="4" t="s">
+        <v>98</v>
+      </c>
+      <c r="B49" s="12">
+        <v>0</v>
+      </c>
+      <c r="C49" s="12">
+        <v>0</v>
+      </c>
+      <c r="D49" s="17">
+        <v>0</v>
+      </c>
+      <c r="E49" s="17">
+        <v>8.3867990000000003E-3</v>
+      </c>
+    </row>
+    <row r="50" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A50" s="4" t="s">
+        <v>99</v>
+      </c>
+      <c r="B50" s="12">
+        <v>0</v>
+      </c>
+      <c r="C50" s="17">
+        <v>2.1899539999999999E-2</v>
+      </c>
+      <c r="D50" s="17">
+        <v>1.299968E-2</v>
+      </c>
+      <c r="E50" s="17">
+        <v>4.1933999999999999E-3</v>
+      </c>
+    </row>
+    <row r="51" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A51" s="4" t="s">
+        <v>353</v>
+      </c>
+      <c r="B51" s="12">
+        <v>0</v>
+      </c>
+      <c r="C51" s="17">
+        <v>3.0322439999999999E-2</v>
+      </c>
+      <c r="D51" s="17">
+        <v>1.5166290000000001E-2</v>
+      </c>
+      <c r="E51" s="17">
+        <v>2.0967E-2</v>
+      </c>
+    </row>
+    <row r="52" spans="1:7" s="24" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A52" s="24" t="s">
+        <v>354</v>
+      </c>
+      <c r="B52" s="25">
+        <v>0</v>
+      </c>
+      <c r="C52" s="25">
+        <v>0</v>
+      </c>
+      <c r="D52" s="27">
+        <v>2.166613E-3</v>
+      </c>
+      <c r="E52" s="25">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="53" spans="1:7" s="24" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A53" s="24" t="s">
+        <v>102</v>
+      </c>
+      <c r="B53" s="25">
+        <v>0</v>
+      </c>
+      <c r="C53" s="25">
+        <v>0</v>
+      </c>
+      <c r="D53" s="27">
         <v>2E-3</v>
       </c>
-      <c r="D48" s="1">
+      <c r="E53" s="25">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54" spans="1:7" s="26" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A54" s="24" t="s">
+        <v>100</v>
+      </c>
+      <c r="B54" s="25">
+        <v>0</v>
+      </c>
+      <c r="C54" s="25">
+        <v>0</v>
+      </c>
+      <c r="D54" s="27">
         <v>6.0000000000000001E-3</v>
       </c>
-      <c r="E48" s="1">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="49" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A49" s="4" t="s">
-        <v>317</v>
-      </c>
-      <c r="B49" s="1">
-        <v>0</v>
-      </c>
-      <c r="C49" s="12">
-        <v>0</v>
-      </c>
-      <c r="D49" s="1">
-        <v>0.03</v>
-      </c>
-      <c r="E49" s="1">
-        <v>1.7000000000000001E-2</v>
-      </c>
-    </row>
-    <row r="50" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A50" t="s">
-        <v>97</v>
-      </c>
-      <c r="B50" s="1">
-        <v>0</v>
-      </c>
-      <c r="C50" s="12">
-        <v>2E-3</v>
-      </c>
-      <c r="D50" s="1">
-        <v>6.0000000000000001E-3</v>
-      </c>
-      <c r="E50" s="1">
-        <v>1.2999999999999999E-2</v>
-      </c>
-    </row>
-    <row r="51" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A51" t="s">
-        <v>98</v>
-      </c>
-      <c r="B51" s="1">
-        <v>0</v>
-      </c>
-      <c r="C51" s="12">
-        <v>0</v>
-      </c>
-      <c r="D51" s="1">
-        <v>0</v>
-      </c>
-      <c r="E51" s="1">
-        <v>8.3000000000000004E-2</v>
-      </c>
-    </row>
-    <row r="52" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A52" t="s">
-        <v>99</v>
-      </c>
-      <c r="B52" s="1">
-        <v>0</v>
-      </c>
-      <c r="C52" s="12">
-        <v>7.0000000000000001E-3</v>
-      </c>
-      <c r="D52" s="1">
-        <v>2E-3</v>
-      </c>
-      <c r="E52" s="1">
-        <v>4.0000000000000001E-3</v>
-      </c>
-    </row>
-    <row r="53" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A53" t="s">
-        <v>107</v>
-      </c>
-      <c r="B53" s="12">
-        <v>0.02</v>
-      </c>
-      <c r="C53" s="12">
-        <v>0.01</v>
-      </c>
-      <c r="D53" s="1">
-        <v>0.02</v>
-      </c>
-      <c r="E53" s="1">
-        <v>1.7000000000000001E-2</v>
-      </c>
-    </row>
-    <row r="54" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A54" s="4" t="s">
-        <v>318</v>
-      </c>
-      <c r="B54" s="1">
-        <v>0</v>
-      </c>
-      <c r="C54" s="12">
-        <v>7.0000000000000001E-3</v>
-      </c>
-      <c r="D54" s="1">
-        <v>8.9999999999999993E-3</v>
-      </c>
-      <c r="E54" s="1">
-        <v>8.0000000000000002E-3</v>
-      </c>
-    </row>
-    <row r="55" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A55" t="s">
-        <v>102</v>
-      </c>
-      <c r="B55" s="1">
-        <v>0</v>
-      </c>
-      <c r="C55" s="12">
-        <v>0</v>
-      </c>
-      <c r="D55" s="1">
-        <v>2E-3</v>
-      </c>
-      <c r="E55" s="1">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="56" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A56" t="s">
-        <v>103</v>
-      </c>
-      <c r="B56" s="1">
-        <v>0</v>
-      </c>
-      <c r="C56" s="12">
-        <v>0</v>
-      </c>
-      <c r="D56" s="1">
-        <v>2E-3</v>
-      </c>
-      <c r="E56" s="1">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="57" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A57" t="s">
-        <v>100</v>
-      </c>
-      <c r="B57" s="1">
-        <v>0</v>
-      </c>
-      <c r="C57" s="12">
-        <v>0</v>
-      </c>
-      <c r="D57" s="1">
-        <v>6.0000000000000001E-3</v>
-      </c>
-      <c r="E57" s="1">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="58" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="B58" s="1">
-        <f>AVERAGE(B2:B57)</f>
-        <v>1.1607142857142858E-3</v>
-      </c>
-      <c r="C58" s="12">
-        <f>AVERAGE(C2:C57)</f>
-        <v>4.1071428571428587E-3</v>
-      </c>
-      <c r="D58" s="1">
-        <f>AVERAGE(D2:D57)</f>
-        <v>1.8821428571428576E-2</v>
-      </c>
-      <c r="E58" s="1">
-        <f>AVERAGE(E2:E57)</f>
-        <v>1.6178571428571431E-2</v>
-      </c>
-    </row>
-    <row r="59" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="B59" s="7">
-        <f>AVERAGE(B2:B57)</f>
-        <v>1.1607142857142858E-3</v>
-      </c>
-      <c r="C59" s="17">
-        <v>4.0000000000000001E-3</v>
-      </c>
-      <c r="D59" s="7">
-        <f>AVERAGE(D2:D57)</f>
-        <v>1.8821428571428576E-2</v>
-      </c>
-      <c r="E59" s="7">
-        <f>AVERAGE(E2:E57)</f>
-        <v>1.6178571428571431E-2</v>
-      </c>
-    </row>
-    <row r="60" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="E54" s="25">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="55" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A55" s="28" t="s">
+        <v>146</v>
+      </c>
+      <c r="B55" s="29">
+        <f>AVERAGE(B2:B54)</f>
+        <v>1.466508E-3</v>
+      </c>
+      <c r="C55" s="29">
+        <f>AVERAGE(C2:C54)</f>
+        <v>6.9278785471698096E-3</v>
+      </c>
+      <c r="D55" s="29">
+        <f>AVERAGE(D2:D54)</f>
+        <v>1.3867588452830185E-2</v>
+      </c>
+      <c r="E55" s="29">
+        <f>AVERAGE(E2:E54)</f>
+        <v>2.4764795811320753E-2</v>
+      </c>
+      <c r="F55" s="30"/>
+      <c r="G55" s="30"/>
+    </row>
+    <row r="56" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A56" s="4" t="s">
+        <v>355</v>
+      </c>
+      <c r="B56" s="17">
+        <f>STDEV(B2:B54)</f>
+        <v>3.6089552846411271E-3</v>
+      </c>
+      <c r="C56" s="17">
+        <f>STDEV(C2:C54)</f>
+        <v>1.3059709200200706E-2</v>
+      </c>
+      <c r="D56" s="17">
+        <f>STDEV(D2:D54)</f>
+        <v>1.5755327163032271E-2</v>
+      </c>
+      <c r="E56" s="17">
+        <f>STDEV(E2:E54)</f>
+        <v>2.4893728804566296E-2</v>
+      </c>
+    </row>
+    <row r="57" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A57" s="1"/>
+      <c r="E57"/>
+    </row>
+    <row r="58" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A58" s="1"/>
+      <c r="E58"/>
+    </row>
+    <row r="59" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A59" s="1"/>
+      <c r="E59"/>
+    </row>
+    <row r="60" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A60" s="1"/>
       <c r="E60"/>
     </row>
-    <row r="61" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="61" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A61" s="1"/>
       <c r="E61"/>
     </row>
-    <row r="62" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="62" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A62" s="1"/>
       <c r="E62"/>
     </row>
-    <row r="63" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="63" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A63" s="1"/>
       <c r="E63"/>
     </row>
-    <row r="64" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="64" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A64" s="1"/>
       <c r="E64"/>
     </row>
@@ -5452,18 +5467,6 @@
     <row r="76" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A76" s="1"/>
       <c r="E76"/>
-    </row>
-    <row r="77" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A77" s="1"/>
-      <c r="E77"/>
-    </row>
-    <row r="78" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A78" s="1"/>
-      <c r="E78"/>
-    </row>
-    <row r="79" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A79" s="1"/>
-      <c r="E79"/>
     </row>
   </sheetData>
   <sortState ref="A2:E79">
@@ -5477,7 +5480,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:R27"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="150" zoomScaleNormal="150" zoomScalePageLayoutView="150" workbookViewId="0">
+    <sheetView zoomScale="150" zoomScaleNormal="150" zoomScalePageLayoutView="150" workbookViewId="0">
       <selection sqref="A1:XFD1"/>
     </sheetView>
   </sheetViews>
@@ -5505,75 +5508,75 @@
     <row r="1" spans="1:18" s="18" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A1" s="16"/>
       <c r="B1" s="21" t="s">
-        <v>157</v>
+        <v>150</v>
       </c>
       <c r="C1" s="21"/>
       <c r="D1" s="21"/>
       <c r="E1" s="16"/>
       <c r="F1" s="21" t="s">
-        <v>158</v>
+        <v>151</v>
       </c>
       <c r="G1" s="21"/>
       <c r="H1" s="21"/>
       <c r="J1" s="16"/>
       <c r="K1" s="21" t="s">
-        <v>159</v>
+        <v>152</v>
       </c>
       <c r="L1" s="21"/>
       <c r="M1" s="21"/>
       <c r="N1" s="16"/>
       <c r="O1" s="16"/>
       <c r="P1" s="21" t="s">
-        <v>160</v>
+        <v>153</v>
       </c>
       <c r="Q1" s="21"/>
       <c r="R1" s="21"/>
     </row>
     <row r="2" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
-        <v>310</v>
+        <v>303</v>
       </c>
       <c r="B2" t="s">
-        <v>309</v>
+        <v>302</v>
       </c>
       <c r="C2" t="s">
-        <v>311</v>
+        <v>304</v>
       </c>
       <c r="D2" t="s">
-        <v>312</v>
+        <v>305</v>
       </c>
       <c r="F2" t="s">
-        <v>309</v>
+        <v>302</v>
       </c>
       <c r="G2" t="s">
-        <v>311</v>
+        <v>304</v>
       </c>
       <c r="H2" t="s">
-        <v>312</v>
+        <v>305</v>
       </c>
       <c r="J2" t="s">
-        <v>310</v>
+        <v>303</v>
       </c>
       <c r="K2" t="s">
-        <v>309</v>
+        <v>302</v>
       </c>
       <c r="L2" t="s">
-        <v>311</v>
+        <v>304</v>
       </c>
       <c r="M2" t="s">
-        <v>312</v>
+        <v>305</v>
       </c>
       <c r="O2" t="s">
-        <v>310</v>
+        <v>303</v>
       </c>
       <c r="P2" t="s">
-        <v>309</v>
+        <v>302</v>
       </c>
       <c r="Q2" t="s">
-        <v>311</v>
+        <v>304</v>
       </c>
       <c r="R2" t="s">
-        <v>312</v>
+        <v>305</v>
       </c>
     </row>
     <row r="3" spans="1:18" x14ac:dyDescent="0.2">
@@ -5587,7 +5590,7 @@
         <v>118346</v>
       </c>
       <c r="D3" s="1" t="s">
-        <v>161</v>
+        <v>154</v>
       </c>
       <c r="E3" s="1">
         <v>1</v>
@@ -5599,7 +5602,7 @@
         <v>37884</v>
       </c>
       <c r="H3" s="1" t="s">
-        <v>162</v>
+        <v>155</v>
       </c>
       <c r="J3">
         <v>1</v>
@@ -5611,7 +5614,7 @@
         <v>33296</v>
       </c>
       <c r="M3" s="1" t="s">
-        <v>171</v>
+        <v>164</v>
       </c>
       <c r="N3" s="1"/>
       <c r="O3">
@@ -5624,7 +5627,7 @@
         <v>61716</v>
       </c>
       <c r="R3" s="1" t="s">
-        <v>194</v>
+        <v>187</v>
       </c>
     </row>
     <row r="4" spans="1:18" x14ac:dyDescent="0.2">
@@ -5638,7 +5641,7 @@
         <v>117205</v>
       </c>
       <c r="D4" s="1" t="s">
-        <v>264</v>
+        <v>257</v>
       </c>
       <c r="E4" s="1">
         <v>2</v>
@@ -5650,7 +5653,7 @@
         <v>35991</v>
       </c>
       <c r="H4" s="1" t="s">
-        <v>184</v>
+        <v>177</v>
       </c>
       <c r="J4">
         <v>2</v>
@@ -5662,7 +5665,7 @@
         <v>24096</v>
       </c>
       <c r="M4" s="1" t="s">
-        <v>164</v>
+        <v>157</v>
       </c>
       <c r="N4" s="1"/>
       <c r="O4">
@@ -5675,7 +5678,7 @@
         <v>38488</v>
       </c>
       <c r="R4" s="1" t="s">
-        <v>275</v>
+        <v>268</v>
       </c>
     </row>
     <row r="5" spans="1:18" x14ac:dyDescent="0.2">
@@ -5689,7 +5692,7 @@
         <v>86863</v>
       </c>
       <c r="D5" s="1" t="s">
-        <v>267</v>
+        <v>260</v>
       </c>
       <c r="E5" s="1">
         <v>3</v>
@@ -5701,7 +5704,7 @@
         <v>27138</v>
       </c>
       <c r="H5" s="1" t="s">
-        <v>170</v>
+        <v>163</v>
       </c>
       <c r="J5">
         <v>3</v>
@@ -5713,7 +5716,7 @@
         <v>23481</v>
       </c>
       <c r="M5" s="1" t="s">
-        <v>174</v>
+        <v>167</v>
       </c>
       <c r="N5" s="1"/>
       <c r="O5">
@@ -5726,7 +5729,7 @@
         <v>34535</v>
       </c>
       <c r="R5" s="1" t="s">
-        <v>279</v>
+        <v>272</v>
       </c>
     </row>
     <row r="6" spans="1:18" x14ac:dyDescent="0.2">
@@ -5740,7 +5743,7 @@
         <v>82684</v>
       </c>
       <c r="D6" s="1" t="s">
-        <v>178</v>
+        <v>171</v>
       </c>
       <c r="E6" s="1">
         <v>4</v>
@@ -5752,7 +5755,7 @@
         <v>26621</v>
       </c>
       <c r="H6" s="1" t="s">
-        <v>182</v>
+        <v>175</v>
       </c>
       <c r="J6">
         <v>4</v>
@@ -5764,7 +5767,7 @@
         <v>12172</v>
       </c>
       <c r="M6" s="1" t="s">
-        <v>175</v>
+        <v>168</v>
       </c>
       <c r="N6" s="1"/>
       <c r="O6">
@@ -5777,7 +5780,7 @@
         <v>34512</v>
       </c>
       <c r="R6" s="1" t="s">
-        <v>276</v>
+        <v>269</v>
       </c>
     </row>
     <row r="7" spans="1:18" x14ac:dyDescent="0.2">
@@ -5791,7 +5794,7 @@
         <v>81256</v>
       </c>
       <c r="D7" s="1" t="s">
-        <v>265</v>
+        <v>258</v>
       </c>
       <c r="E7" s="1">
         <v>5</v>
@@ -5803,7 +5806,7 @@
         <v>26244</v>
       </c>
       <c r="H7" s="1" t="s">
-        <v>161</v>
+        <v>154</v>
       </c>
       <c r="J7">
         <v>5</v>
@@ -5815,7 +5818,7 @@
         <v>12024</v>
       </c>
       <c r="M7" s="1" t="s">
-        <v>291</v>
+        <v>284</v>
       </c>
       <c r="N7" s="1"/>
       <c r="O7">
@@ -5828,7 +5831,7 @@
         <v>33518</v>
       </c>
       <c r="R7" s="1" t="s">
-        <v>288</v>
+        <v>281</v>
       </c>
     </row>
     <row r="8" spans="1:18" x14ac:dyDescent="0.2">
@@ -5842,7 +5845,7 @@
         <v>58404</v>
       </c>
       <c r="D8" s="1" t="s">
-        <v>299</v>
+        <v>292</v>
       </c>
       <c r="E8" s="1">
         <v>6</v>
@@ -5854,7 +5857,7 @@
         <v>25922</v>
       </c>
       <c r="H8" s="1" t="s">
-        <v>187</v>
+        <v>180</v>
       </c>
       <c r="J8">
         <v>6</v>
@@ -5866,7 +5869,7 @@
         <v>10181</v>
       </c>
       <c r="M8" s="1" t="s">
-        <v>298</v>
+        <v>291</v>
       </c>
       <c r="N8" s="1"/>
       <c r="O8">
@@ -5879,7 +5882,7 @@
         <v>32294</v>
       </c>
       <c r="R8" s="1" t="s">
-        <v>277</v>
+        <v>270</v>
       </c>
     </row>
     <row r="9" spans="1:18" x14ac:dyDescent="0.2">
@@ -5893,7 +5896,7 @@
         <v>55428</v>
       </c>
       <c r="D9" s="1" t="s">
-        <v>184</v>
+        <v>177</v>
       </c>
       <c r="E9" s="1">
         <v>7</v>
@@ -5905,7 +5908,7 @@
         <v>21028</v>
       </c>
       <c r="H9" s="1" t="s">
-        <v>183</v>
+        <v>176</v>
       </c>
       <c r="J9">
         <v>7</v>
@@ -5917,7 +5920,7 @@
         <v>9823</v>
       </c>
       <c r="M9" s="1" t="s">
-        <v>185</v>
+        <v>178</v>
       </c>
       <c r="N9" s="1"/>
       <c r="O9">
@@ -5930,7 +5933,7 @@
         <v>28444</v>
       </c>
       <c r="R9" s="1" t="s">
-        <v>281</v>
+        <v>274</v>
       </c>
     </row>
     <row r="10" spans="1:18" x14ac:dyDescent="0.2">
@@ -5944,7 +5947,7 @@
         <v>50384</v>
       </c>
       <c r="D10" s="1" t="s">
-        <v>182</v>
+        <v>175</v>
       </c>
       <c r="E10" s="1">
         <v>8</v>
@@ -5956,7 +5959,7 @@
         <v>19241</v>
       </c>
       <c r="H10" s="1" t="s">
-        <v>347</v>
+        <v>333</v>
       </c>
       <c r="J10">
         <v>8</v>
@@ -5981,7 +5984,7 @@
         <v>26485</v>
       </c>
       <c r="R10" s="1" t="s">
-        <v>305</v>
+        <v>298</v>
       </c>
     </row>
     <row r="11" spans="1:18" x14ac:dyDescent="0.2">
@@ -5995,7 +5998,7 @@
         <v>49488</v>
       </c>
       <c r="D11" s="1" t="s">
-        <v>266</v>
+        <v>259</v>
       </c>
       <c r="E11" s="1">
         <v>9</v>
@@ -6007,7 +6010,7 @@
         <v>17363</v>
       </c>
       <c r="H11" s="1" t="s">
-        <v>271</v>
+        <v>264</v>
       </c>
       <c r="J11">
         <v>9</v>
@@ -6019,7 +6022,7 @@
         <v>9602</v>
       </c>
       <c r="M11" s="1" t="s">
-        <v>293</v>
+        <v>286</v>
       </c>
       <c r="N11" s="1"/>
       <c r="O11">
@@ -6032,7 +6035,7 @@
         <v>25796</v>
       </c>
       <c r="R11" s="1" t="s">
-        <v>280</v>
+        <v>273</v>
       </c>
     </row>
     <row r="12" spans="1:18" x14ac:dyDescent="0.2">
@@ -6046,7 +6049,7 @@
         <v>43818</v>
       </c>
       <c r="D12" s="1" t="s">
-        <v>269</v>
+        <v>262</v>
       </c>
       <c r="E12" s="1">
         <v>10</v>
@@ -6058,7 +6061,7 @@
         <v>16571</v>
       </c>
       <c r="H12" s="1" t="s">
-        <v>173</v>
+        <v>166</v>
       </c>
       <c r="J12">
         <v>10</v>
@@ -6070,7 +6073,7 @@
         <v>9528</v>
       </c>
       <c r="M12" s="1" t="s">
-        <v>352</v>
+        <v>338</v>
       </c>
       <c r="N12" s="1"/>
       <c r="O12">
@@ -6083,7 +6086,7 @@
         <v>24554</v>
       </c>
       <c r="R12" s="1" t="s">
-        <v>278</v>
+        <v>271</v>
       </c>
     </row>
     <row r="13" spans="1:18" x14ac:dyDescent="0.2">
@@ -6097,7 +6100,7 @@
         <v>42794</v>
       </c>
       <c r="D13" s="1" t="s">
-        <v>301</v>
+        <v>294</v>
       </c>
       <c r="E13" s="1">
         <v>11</v>
@@ -6109,7 +6112,7 @@
         <v>16532</v>
       </c>
       <c r="H13" s="1" t="s">
-        <v>348</v>
+        <v>334</v>
       </c>
       <c r="J13">
         <v>11</v>
@@ -6121,7 +6124,7 @@
         <v>9289</v>
       </c>
       <c r="M13" s="1" t="s">
-        <v>295</v>
+        <v>288</v>
       </c>
       <c r="N13" s="1"/>
       <c r="O13">
@@ -6134,7 +6137,7 @@
         <v>24337</v>
       </c>
       <c r="R13" s="1" t="s">
-        <v>283</v>
+        <v>276</v>
       </c>
     </row>
     <row r="14" spans="1:18" x14ac:dyDescent="0.2">
@@ -6148,7 +6151,7 @@
         <v>41911</v>
       </c>
       <c r="D14" s="1" t="s">
-        <v>170</v>
+        <v>163</v>
       </c>
       <c r="E14" s="1">
         <v>12</v>
@@ -6160,7 +6163,7 @@
         <v>16281</v>
       </c>
       <c r="H14" s="1" t="s">
-        <v>349</v>
+        <v>335</v>
       </c>
       <c r="J14">
         <v>12</v>
@@ -6172,7 +6175,7 @@
         <v>8811</v>
       </c>
       <c r="M14" s="1" t="s">
-        <v>294</v>
+        <v>287</v>
       </c>
       <c r="N14" s="1"/>
       <c r="O14">
@@ -6185,7 +6188,7 @@
         <v>23288</v>
       </c>
       <c r="R14" s="1" t="s">
-        <v>290</v>
+        <v>283</v>
       </c>
     </row>
     <row r="15" spans="1:18" x14ac:dyDescent="0.2">
@@ -6199,7 +6202,7 @@
         <v>39483</v>
       </c>
       <c r="D15" s="1" t="s">
-        <v>304</v>
+        <v>297</v>
       </c>
       <c r="E15" s="1">
         <v>13</v>
@@ -6211,7 +6214,7 @@
         <v>13956</v>
       </c>
       <c r="H15" s="1" t="s">
-        <v>273</v>
+        <v>266</v>
       </c>
       <c r="J15">
         <v>13</v>
@@ -6223,7 +6226,7 @@
         <v>8655</v>
       </c>
       <c r="M15" s="1" t="s">
-        <v>292</v>
+        <v>285</v>
       </c>
       <c r="N15" s="1"/>
       <c r="O15">
@@ -6236,7 +6239,7 @@
         <v>22729</v>
       </c>
       <c r="R15" s="1" t="s">
-        <v>286</v>
+        <v>279</v>
       </c>
     </row>
     <row r="16" spans="1:18" x14ac:dyDescent="0.2">
@@ -6250,7 +6253,7 @@
         <v>36847</v>
       </c>
       <c r="D16" s="1" t="s">
-        <v>303</v>
+        <v>296</v>
       </c>
       <c r="E16" s="1">
         <v>14</v>
@@ -6262,7 +6265,7 @@
         <v>13330</v>
       </c>
       <c r="H16" s="1" t="s">
-        <v>341</v>
+        <v>327</v>
       </c>
       <c r="J16">
         <v>14</v>
@@ -6274,7 +6277,7 @@
         <v>8637</v>
       </c>
       <c r="M16" s="1" t="s">
-        <v>353</v>
+        <v>339</v>
       </c>
       <c r="N16" s="1"/>
       <c r="O16">
@@ -6287,7 +6290,7 @@
         <v>22294</v>
       </c>
       <c r="R16" s="1" t="s">
-        <v>289</v>
+        <v>282</v>
       </c>
     </row>
     <row r="17" spans="1:18" x14ac:dyDescent="0.2">
@@ -6301,7 +6304,7 @@
         <v>36271</v>
       </c>
       <c r="D17" s="1" t="s">
-        <v>270</v>
+        <v>263</v>
       </c>
       <c r="E17" s="1">
         <v>15</v>
@@ -6313,7 +6316,7 @@
         <v>12208</v>
       </c>
       <c r="H17" s="1" t="s">
-        <v>172</v>
+        <v>165</v>
       </c>
       <c r="J17">
         <v>15</v>
@@ -6325,7 +6328,7 @@
         <v>8228</v>
       </c>
       <c r="M17" s="1" t="s">
-        <v>176</v>
+        <v>169</v>
       </c>
       <c r="N17" s="1"/>
       <c r="O17">
@@ -6338,7 +6341,7 @@
         <v>21649</v>
       </c>
       <c r="R17" s="1" t="s">
-        <v>306</v>
+        <v>299</v>
       </c>
     </row>
     <row r="18" spans="1:18" x14ac:dyDescent="0.2">
@@ -6352,7 +6355,7 @@
         <v>35676</v>
       </c>
       <c r="D18" s="1" t="s">
-        <v>268</v>
+        <v>261</v>
       </c>
       <c r="E18" s="1">
         <v>16</v>
@@ -6364,7 +6367,7 @@
         <v>11757</v>
       </c>
       <c r="H18" s="1" t="s">
-        <v>189</v>
+        <v>182</v>
       </c>
       <c r="J18">
         <v>16</v>
@@ -6376,7 +6379,7 @@
         <v>8157</v>
       </c>
       <c r="M18" s="1" t="s">
-        <v>296</v>
+        <v>289</v>
       </c>
       <c r="N18" s="1"/>
       <c r="O18">
@@ -6389,7 +6392,7 @@
         <v>21569</v>
       </c>
       <c r="R18" s="1" t="s">
-        <v>307</v>
+        <v>300</v>
       </c>
     </row>
     <row r="19" spans="1:18" x14ac:dyDescent="0.2">
@@ -6403,7 +6406,7 @@
         <v>35518</v>
       </c>
       <c r="D19" s="1" t="s">
-        <v>168</v>
+        <v>161</v>
       </c>
       <c r="E19" s="1">
         <v>17</v>
@@ -6415,7 +6418,7 @@
         <v>10409</v>
       </c>
       <c r="H19" s="1" t="s">
-        <v>342</v>
+        <v>328</v>
       </c>
       <c r="J19">
         <v>17</v>
@@ -6427,7 +6430,7 @@
         <v>8157</v>
       </c>
       <c r="M19" s="1" t="s">
-        <v>354</v>
+        <v>340</v>
       </c>
       <c r="N19" s="1"/>
       <c r="O19">
@@ -6440,7 +6443,7 @@
         <v>20459</v>
       </c>
       <c r="R19" s="1" t="s">
-        <v>357</v>
+        <v>343</v>
       </c>
     </row>
     <row r="20" spans="1:18" x14ac:dyDescent="0.2">
@@ -6454,7 +6457,7 @@
         <v>35013</v>
       </c>
       <c r="D20" s="1" t="s">
-        <v>302</v>
+        <v>295</v>
       </c>
       <c r="E20" s="1">
         <v>18</v>
@@ -6466,7 +6469,7 @@
         <v>9744</v>
       </c>
       <c r="H20" s="1" t="s">
-        <v>350</v>
+        <v>336</v>
       </c>
       <c r="J20">
         <v>18</v>
@@ -6478,7 +6481,7 @@
         <v>8146</v>
       </c>
       <c r="M20" s="1" t="s">
-        <v>301</v>
+        <v>294</v>
       </c>
       <c r="N20" s="1"/>
       <c r="O20">
@@ -6491,7 +6494,7 @@
         <v>19880</v>
       </c>
       <c r="R20" s="1" t="s">
-        <v>284</v>
+        <v>277</v>
       </c>
     </row>
     <row r="21" spans="1:18" x14ac:dyDescent="0.2">
@@ -6505,7 +6508,7 @@
         <v>34333</v>
       </c>
       <c r="D21" s="1" t="s">
-        <v>300</v>
+        <v>293</v>
       </c>
       <c r="E21" s="1">
         <v>19</v>
@@ -6517,7 +6520,7 @@
         <v>9559</v>
       </c>
       <c r="H21" s="1" t="s">
-        <v>343</v>
+        <v>329</v>
       </c>
       <c r="J21">
         <v>19</v>
@@ -6529,7 +6532,7 @@
         <v>7344</v>
       </c>
       <c r="M21" s="1" t="s">
-        <v>325</v>
+        <v>311</v>
       </c>
       <c r="N21" s="1"/>
       <c r="O21">
@@ -6542,7 +6545,7 @@
         <v>19855</v>
       </c>
       <c r="R21" s="1" t="s">
-        <v>282</v>
+        <v>275</v>
       </c>
     </row>
     <row r="22" spans="1:18" x14ac:dyDescent="0.2">
@@ -6556,7 +6559,7 @@
         <v>31587</v>
       </c>
       <c r="D22" s="1" t="s">
-        <v>321</v>
+        <v>307</v>
       </c>
       <c r="E22" s="1">
         <v>20</v>
@@ -6568,7 +6571,7 @@
         <v>9021</v>
       </c>
       <c r="H22" s="1" t="s">
-        <v>344</v>
+        <v>330</v>
       </c>
       <c r="J22">
         <v>20</v>
@@ -6580,7 +6583,7 @@
         <v>7205</v>
       </c>
       <c r="M22" s="1" t="s">
-        <v>326</v>
+        <v>312</v>
       </c>
       <c r="N22" s="1"/>
       <c r="O22">
@@ -6593,7 +6596,7 @@
         <v>19258</v>
       </c>
       <c r="R22" s="1" t="s">
-        <v>308</v>
+        <v>301</v>
       </c>
     </row>
     <row r="23" spans="1:18" x14ac:dyDescent="0.2">
@@ -6607,7 +6610,7 @@
         <v>31587</v>
       </c>
       <c r="D23" s="1" t="s">
-        <v>322</v>
+        <v>308</v>
       </c>
       <c r="E23" s="1">
         <v>21</v>
@@ -6619,7 +6622,7 @@
         <v>8903</v>
       </c>
       <c r="H23" s="1" t="s">
-        <v>274</v>
+        <v>267</v>
       </c>
       <c r="J23">
         <v>21</v>
@@ -6631,7 +6634,7 @@
         <v>7103</v>
       </c>
       <c r="M23" s="1" t="s">
-        <v>299</v>
+        <v>292</v>
       </c>
       <c r="N23" s="1"/>
       <c r="O23">
@@ -6644,7 +6647,7 @@
         <v>19132</v>
       </c>
       <c r="R23" s="1" t="s">
-        <v>285</v>
+        <v>278</v>
       </c>
     </row>
     <row r="24" spans="1:18" x14ac:dyDescent="0.2">
@@ -6658,7 +6661,7 @@
         <v>29332</v>
       </c>
       <c r="D24" s="1" t="s">
-        <v>320</v>
+        <v>306</v>
       </c>
       <c r="E24" s="1">
         <v>22</v>
@@ -6670,7 +6673,7 @@
         <v>8367</v>
       </c>
       <c r="H24" s="1" t="s">
-        <v>345</v>
+        <v>331</v>
       </c>
       <c r="J24">
         <v>22</v>
@@ -6682,7 +6685,7 @@
         <v>6748</v>
       </c>
       <c r="M24" s="1" t="s">
-        <v>355</v>
+        <v>341</v>
       </c>
       <c r="N24" s="1"/>
       <c r="O24">
@@ -6695,7 +6698,7 @@
         <v>18600</v>
       </c>
       <c r="R24" s="1" t="s">
-        <v>323</v>
+        <v>309</v>
       </c>
     </row>
     <row r="25" spans="1:18" x14ac:dyDescent="0.2">
@@ -6709,7 +6712,7 @@
         <v>29068</v>
       </c>
       <c r="D25" s="1" t="s">
-        <v>169</v>
+        <v>162</v>
       </c>
       <c r="E25" s="1">
         <v>23</v>
@@ -6721,7 +6724,7 @@
         <v>8289</v>
       </c>
       <c r="H25" s="1" t="s">
-        <v>346</v>
+        <v>332</v>
       </c>
       <c r="J25">
         <v>23</v>
@@ -6733,7 +6736,7 @@
         <v>6723</v>
       </c>
       <c r="M25" s="1" t="s">
-        <v>297</v>
+        <v>290</v>
       </c>
       <c r="N25" s="1"/>
       <c r="O25">
@@ -6746,7 +6749,7 @@
         <v>18195</v>
       </c>
       <c r="R25" s="1" t="s">
-        <v>358</v>
+        <v>344</v>
       </c>
     </row>
     <row r="26" spans="1:18" x14ac:dyDescent="0.2">
@@ -6760,7 +6763,7 @@
         <v>28278</v>
       </c>
       <c r="D26" s="1" t="s">
-        <v>339</v>
+        <v>325</v>
       </c>
       <c r="E26" s="1">
         <v>24</v>
@@ -6772,7 +6775,7 @@
         <v>8266</v>
       </c>
       <c r="H26" s="1" t="s">
-        <v>351</v>
+        <v>337</v>
       </c>
       <c r="J26">
         <v>24</v>
@@ -6784,7 +6787,7 @@
         <v>6619</v>
       </c>
       <c r="M26" s="1" t="s">
-        <v>324</v>
+        <v>310</v>
       </c>
       <c r="N26" s="1"/>
       <c r="O26">
@@ -6797,7 +6800,7 @@
         <v>17954</v>
       </c>
       <c r="R26" s="1" t="s">
-        <v>287</v>
+        <v>280</v>
       </c>
     </row>
     <row r="27" spans="1:18" x14ac:dyDescent="0.2">
@@ -6811,7 +6814,7 @@
         <v>27524</v>
       </c>
       <c r="D27" s="1" t="s">
-        <v>340</v>
+        <v>326</v>
       </c>
       <c r="E27" s="1">
         <v>25</v>
@@ -6823,7 +6826,7 @@
         <v>7705</v>
       </c>
       <c r="H27" s="1" t="s">
-        <v>272</v>
+        <v>265</v>
       </c>
       <c r="J27">
         <v>25</v>
@@ -6835,7 +6838,7 @@
         <v>6376</v>
       </c>
       <c r="M27" s="1" t="s">
-        <v>356</v>
+        <v>342</v>
       </c>
       <c r="N27" s="1"/>
       <c r="O27">
@@ -6848,7 +6851,7 @@
         <v>17452</v>
       </c>
       <c r="R27" s="1" t="s">
-        <v>327</v>
+        <v>313</v>
       </c>
     </row>
   </sheetData>
@@ -6912,7 +6915,7 @@
     </row>
     <row r="6" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A6" t="s">
-        <v>151</v>
+        <v>144</v>
       </c>
       <c r="B6">
         <v>1</v>
